--- a/_data/PCA_factor_loadings.xlsx
+++ b/_data/PCA_factor_loadings.xlsx
@@ -11,6 +11,26 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Team Leader (-ve)</t>
+  </si>
+  <si>
+    <t>Networker</t>
+  </si>
+  <si>
+    <t>Unifier (-ve)</t>
+  </si>
+  <si>
+    <t>Growth Mindset (-ve)</t>
+  </si>
+  <si>
+    <t>Egocentric</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -373,20 +393,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1</v>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">

--- a/_data/PCA_factor_loadings.xlsx
+++ b/_data/PCA_factor_loadings.xlsx
@@ -28,7 +28,7 @@
     <t>Growth Mindset (-ve)</t>
   </si>
   <si>
-    <t>Egocentric</t>
+    <t>Follower</t>
   </si>
 </sst>
 </file>

--- a/_data/PCA_factor_loadings.xlsx
+++ b/_data/PCA_factor_loadings.xlsx
@@ -411,33 +411,33 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>0.3901893924380388</v>
+        <v>0.3901893924380382</v>
       </c>
       <c r="B2">
-        <v>0.2124359113059577</v>
+        <v>0.2124359113059599</v>
       </c>
       <c r="C2">
-        <v>-0.2522840343326834</v>
+        <v>-0.252284034332681</v>
       </c>
       <c r="D2">
-        <v>-0.0186568323140836</v>
+        <v>-0.01865683231408398</v>
       </c>
       <c r="E2">
-        <v>0.1387405696233162</v>
+        <v>0.1387405696233151</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>0.5602385707872782</v>
+        <v>0.5602385707872765</v>
       </c>
       <c r="B3">
-        <v>0.8116230580240404</v>
+        <v>0.8116230580240451</v>
       </c>
       <c r="C3">
-        <v>-0.5313867415773145</v>
+        <v>-0.5313867415773104</v>
       </c>
       <c r="D3">
-        <v>-0.03598610652574401</v>
+        <v>-0.03598610652574387</v>
       </c>
       <c r="E3">
         <v>-0.5822604016255818</v>
@@ -445,13 +445,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>1.014041152525131</v>
+        <v>1.014041152525132</v>
       </c>
       <c r="B4">
-        <v>-1.96122867252678</v>
+        <v>-1.961228672526771</v>
       </c>
       <c r="C4">
-        <v>-0.542069522664934</v>
+        <v>-0.5420695226649309</v>
       </c>
       <c r="D4">
         <v>1.936303626610636</v>
@@ -462,30 +462,30 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>0.1156642562486552</v>
+        <v>0.1156642562486555</v>
       </c>
       <c r="B5">
-        <v>0.3056691117903682</v>
+        <v>0.3056691117903642</v>
       </c>
       <c r="C5">
-        <v>0.6914038296667959</v>
+        <v>0.6914038296667928</v>
       </c>
       <c r="D5">
         <v>-1.241212347252955</v>
       </c>
       <c r="E5">
-        <v>0.4082031758478811</v>
+        <v>0.4082031758478805</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>2.057207238242471</v>
+        <v>2.05720723824247</v>
       </c>
       <c r="B6">
-        <v>-0.02706900180929024</v>
+        <v>-0.02706900180928927</v>
       </c>
       <c r="C6">
-        <v>0.8868777053492533</v>
+        <v>0.8868777053492545</v>
       </c>
       <c r="D6">
         <v>2.484522330397788</v>
@@ -496,13 +496,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>1.87760769311152</v>
+        <v>1.877607693111519</v>
       </c>
       <c r="B7">
-        <v>1.277581279651555</v>
+        <v>1.27758127965155</v>
       </c>
       <c r="C7">
-        <v>0.6556530747938063</v>
+        <v>0.6556530747938041</v>
       </c>
       <c r="D7">
         <v>1.109550599824944</v>
@@ -513,16 +513,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>1.207898517489298</v>
+        <v>1.207898517489297</v>
       </c>
       <c r="B8">
-        <v>0.7852885342828536</v>
+        <v>0.7852885342828491</v>
       </c>
       <c r="C8">
-        <v>1.099162223281541</v>
+        <v>1.099162223281539</v>
       </c>
       <c r="D8">
-        <v>0.08580831501188206</v>
+        <v>0.08580831501188203</v>
       </c>
       <c r="E8">
         <v>-0.465433656546298</v>
@@ -530,36 +530,36 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>-1.123816879760525</v>
+        <v>-1.123816879760523</v>
       </c>
       <c r="B9">
-        <v>-1.154092192212298</v>
+        <v>-1.154092192212297</v>
       </c>
       <c r="C9">
-        <v>0.1370091328632462</v>
+        <v>0.1370091328632464</v>
       </c>
       <c r="D9">
-        <v>-0.3698862780738673</v>
+        <v>-0.3698862780738674</v>
       </c>
       <c r="E9">
-        <v>0.1023513588391547</v>
+        <v>0.1023513588391549</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>1.16857688512137</v>
+        <v>1.168576885121369</v>
       </c>
       <c r="B10">
-        <v>-0.09542871945263499</v>
+        <v>-0.09542871945263323</v>
       </c>
       <c r="C10">
-        <v>-0.6610563448638203</v>
+        <v>-0.6610563448638201</v>
       </c>
       <c r="D10">
-        <v>0.6637705007092746</v>
+        <v>0.6637705007092745</v>
       </c>
       <c r="E10">
-        <v>0.6263780980727269</v>
+        <v>0.6263780980727273</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -567,13 +567,13 @@
         <v>-1.271706145384041</v>
       </c>
       <c r="B11">
-        <v>0.5052711166013926</v>
+        <v>0.5052711166013976</v>
       </c>
       <c r="C11">
-        <v>-0.9083088503123449</v>
+        <v>-0.9083088503123385</v>
       </c>
       <c r="D11">
-        <v>-1.32632167771278</v>
+        <v>-1.326321677712781</v>
       </c>
       <c r="E11">
         <v>-1.341364592844519</v>
@@ -581,16 +581,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>0.2450394837495268</v>
+        <v>0.2450394837495259</v>
       </c>
       <c r="B12">
-        <v>1.564582544777976</v>
+        <v>1.56458254477797</v>
       </c>
       <c r="C12">
         <v>1.134442653432272</v>
       </c>
       <c r="D12">
-        <v>0.4546036205203317</v>
+        <v>0.4546036205203318</v>
       </c>
       <c r="E12">
         <v>1.063341537949358</v>
@@ -598,47 +598,47 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>-1.412647159123937</v>
+        <v>-1.412647159123935</v>
       </c>
       <c r="B13">
-        <v>0.07522325061863795</v>
+        <v>0.07522325061863284</v>
       </c>
       <c r="C13">
-        <v>0.2458063195076764</v>
+        <v>0.2458063195076722</v>
       </c>
       <c r="D13">
         <v>-1.308755817964113</v>
       </c>
       <c r="E13">
-        <v>0.1510213908669756</v>
+        <v>0.1510213908669757</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>-0.4056059728435227</v>
+        <v>-0.4056059728435213</v>
       </c>
       <c r="B14">
-        <v>-1.193857858349093</v>
+        <v>-1.193857858349094</v>
       </c>
       <c r="C14">
-        <v>-0.1500937399476584</v>
+        <v>-0.1500937399476611</v>
       </c>
       <c r="D14">
-        <v>-0.2926648989296387</v>
+        <v>-0.2926648989296388</v>
       </c>
       <c r="E14">
-        <v>-0.8173378536109466</v>
+        <v>-0.8173378536109469</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>-0.1158129932932236</v>
+        <v>-0.1158129932932254</v>
       </c>
       <c r="B15">
-        <v>1.864315631201534</v>
+        <v>1.864315631201533</v>
       </c>
       <c r="C15">
-        <v>-0.4774673684580931</v>
+        <v>-0.4774673684580918</v>
       </c>
       <c r="D15">
         <v>-1.044898830855648</v>
@@ -649,30 +649,30 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>0.4989126090021729</v>
+        <v>0.4989126090021718</v>
       </c>
       <c r="B16">
-        <v>0.7543418559547311</v>
+        <v>0.7543418559547285</v>
       </c>
       <c r="C16">
-        <v>-0.07328629218367566</v>
+        <v>-0.07328629218367751</v>
       </c>
       <c r="D16">
         <v>0.6464412264976158</v>
       </c>
       <c r="E16">
-        <v>-0.09462287317617128</v>
+        <v>-0.09462287317617114</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>-0.201056613152649</v>
+        <v>-0.2010566131526487</v>
       </c>
       <c r="B17">
-        <v>-0.2157796299392601</v>
+        <v>-0.215779629939259</v>
       </c>
       <c r="C17">
-        <v>-0.04618547520003064</v>
+        <v>-0.0461854752000299</v>
       </c>
       <c r="D17">
         <v>-1.037247465077061</v>
@@ -683,33 +683,33 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>-1.093882559406713</v>
+        <v>-1.093882559406712</v>
       </c>
       <c r="B18">
-        <v>-1.610805951572361</v>
+        <v>-1.61080595157236</v>
       </c>
       <c r="C18">
-        <v>-1.14763586726173</v>
+        <v>-1.147635867261732</v>
       </c>
       <c r="D18">
-        <v>0.05586226254559707</v>
+        <v>0.05586226254559692</v>
       </c>
       <c r="E18">
-        <v>0.3549114353032017</v>
+        <v>0.3549114353032021</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>2.011326523657692</v>
+        <v>2.01132652365769</v>
       </c>
       <c r="B19">
-        <v>0.5560420602816838</v>
+        <v>0.5560420602816873</v>
       </c>
       <c r="C19">
-        <v>0.819805286959608</v>
+        <v>0.8198052869596134</v>
       </c>
       <c r="D19">
-        <v>0.265468298827594</v>
+        <v>0.2654682988275942</v>
       </c>
       <c r="E19">
         <v>1.085445870944898</v>
@@ -717,67 +717,67 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>0.3817841791149426</v>
+        <v>0.381784179114944</v>
       </c>
       <c r="B20">
-        <v>-0.6429232451968442</v>
+        <v>-0.6429232451968518</v>
       </c>
       <c r="C20">
-        <v>1.443519736889864</v>
+        <v>1.443519736889859</v>
       </c>
       <c r="D20">
-        <v>1.508089387243633</v>
+        <v>1.508089387243634</v>
       </c>
       <c r="E20">
-        <v>0.7763963072461092</v>
+        <v>0.7763963072461099</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>-0.1333596396236196</v>
+        <v>-0.1333596396236192</v>
       </c>
       <c r="B21">
-        <v>1.766742630596495</v>
+        <v>1.766742630596481</v>
       </c>
       <c r="C21">
-        <v>2.536697078873882</v>
+        <v>2.536697078873879</v>
       </c>
       <c r="D21">
-        <v>0.05880113236715209</v>
+        <v>0.05880113236715232</v>
       </c>
       <c r="E21">
-        <v>-0.009563630364189432</v>
+        <v>-0.009563630364189458</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>2.408368150079087</v>
+        <v>2.408368150079086</v>
       </c>
       <c r="B22">
-        <v>-0.5352576351292214</v>
+        <v>-0.5352576351292209</v>
       </c>
       <c r="C22">
-        <v>0.02290021295382916</v>
+        <v>0.02290021295382621</v>
       </c>
       <c r="D22">
         <v>2.589021492704719</v>
       </c>
       <c r="E22">
-        <v>1.201078925879079</v>
+        <v>1.20107892587908</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>1.637297927164749</v>
+        <v>1.637297927164747</v>
       </c>
       <c r="B23">
-        <v>-0.1700154521607218</v>
+        <v>-0.1700154521607138</v>
       </c>
       <c r="C23">
-        <v>-1.708448906189455</v>
+        <v>-1.708448906189452</v>
       </c>
       <c r="D23">
-        <v>1.625171312824227</v>
+        <v>1.625171312824228</v>
       </c>
       <c r="E23">
         <v>-1.369123982021902</v>
@@ -785,104 +785,104 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>0.6623491019558918</v>
+        <v>0.6623491019558906</v>
       </c>
       <c r="B24">
-        <v>-0.2656286087720053</v>
+        <v>-0.2656286087720032</v>
       </c>
       <c r="C24">
-        <v>-1.575754131583481</v>
+        <v>-1.575754131583484</v>
       </c>
       <c r="D24">
         <v>1.936303626610636</v>
       </c>
       <c r="E24">
-        <v>-0.8782887068824276</v>
+        <v>-0.8782887068824278</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>0.8903487560786999</v>
+        <v>0.8903487560786992</v>
       </c>
       <c r="B25">
-        <v>0.6663297019343456</v>
+        <v>0.6663297019343442</v>
       </c>
       <c r="C25">
-        <v>0.5656643349937738</v>
+        <v>0.5656643349937737</v>
       </c>
       <c r="D25">
         <v>-2.969913237314084</v>
       </c>
       <c r="E25">
-        <v>0.9378849712632955</v>
+        <v>0.9378849712632953</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>-0.9722937101678769</v>
+        <v>-0.9722937101678754</v>
       </c>
       <c r="B26">
-        <v>-0.911186771977734</v>
+        <v>-0.9111867719777323</v>
       </c>
       <c r="C26">
-        <v>0.08696957957901108</v>
+        <v>0.08696957957901161</v>
       </c>
       <c r="D26">
         <v>0.1905100478748579</v>
       </c>
       <c r="E26">
-        <v>-0.298222870253315</v>
+        <v>-0.2982228702533149</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>1.109156871334187</v>
+        <v>1.109156871334185</v>
       </c>
       <c r="B27">
-        <v>1.046777940672196</v>
+        <v>1.046777940672194</v>
       </c>
       <c r="C27">
-        <v>-0.4169213298002268</v>
+        <v>-0.4169213298002281</v>
       </c>
       <c r="D27">
         <v>2.088280686151555</v>
       </c>
       <c r="E27">
-        <v>-0.8104220411900462</v>
+        <v>-0.8104220411900461</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>-1.200253384942316</v>
+        <v>-1.200253384942318</v>
       </c>
       <c r="B28">
-        <v>1.820473881155291</v>
+        <v>1.820473881155295</v>
       </c>
       <c r="C28">
-        <v>-1.547695327411521</v>
+        <v>-1.547695327411516</v>
       </c>
       <c r="D28">
         <v>-3.169165623532947</v>
       </c>
       <c r="E28">
-        <v>0.9693624261715158</v>
+        <v>0.9693624261715159</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>-0.7316958207638669</v>
+        <v>-0.7316958207638663</v>
       </c>
       <c r="B29">
-        <v>0.004758237104603828</v>
+        <v>0.00475823710460045</v>
       </c>
       <c r="C29">
-        <v>-0.4054890963485502</v>
+        <v>-0.4054890963485528</v>
       </c>
       <c r="D29">
-        <v>-0.7211157238336496</v>
+        <v>-0.7211157238336499</v>
       </c>
       <c r="E29">
-        <v>0.06596214805499373</v>
+        <v>0.06596214805499412</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -890,30 +890,30 @@
         <v>-1.170977813727556</v>
       </c>
       <c r="B30">
-        <v>-0.3811939761362528</v>
+        <v>-0.3811939761362471</v>
       </c>
       <c r="C30">
-        <v>-1.82109390644715</v>
+        <v>-1.821093906447148</v>
       </c>
       <c r="D30">
-        <v>-1.092174157533591</v>
+        <v>-1.092174157533592</v>
       </c>
       <c r="E30">
-        <v>0.8405449072076531</v>
+        <v>0.8405449072076533</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>0.5521647290391412</v>
+        <v>0.5521647290391417</v>
       </c>
       <c r="B31">
-        <v>-0.1198621896888992</v>
+        <v>-0.119862189688901</v>
       </c>
       <c r="C31">
-        <v>1.486269110753746</v>
+        <v>1.486269110753747</v>
       </c>
       <c r="D31">
-        <v>0.02120371412227975</v>
+        <v>0.02120371412227993</v>
       </c>
       <c r="E31">
         <v>-1.087090507194594</v>
@@ -921,19 +921,19 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>-0.8324867972311544</v>
+        <v>-0.8324867972311543</v>
       </c>
       <c r="B32">
-        <v>-0.5006144199979157</v>
+        <v>-0.5006144199979137</v>
       </c>
       <c r="C32">
-        <v>-1.355108690070364</v>
+        <v>-1.355108690070365</v>
       </c>
       <c r="D32">
-        <v>-2.608769297584221</v>
+        <v>-2.608769297584222</v>
       </c>
       <c r="E32">
-        <v>0.568788197079046</v>
+        <v>0.5687881970790459</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -941,146 +941,146 @@
         <v>1.230173676348244</v>
       </c>
       <c r="B33">
-        <v>-0.3054610504261576</v>
+        <v>-0.3054610504261542</v>
       </c>
       <c r="C33">
-        <v>0.4307116948405084</v>
+        <v>0.4307116948405113</v>
       </c>
       <c r="D33">
-        <v>-1.034984336885568</v>
+        <v>-1.034984336885569</v>
       </c>
       <c r="E33">
-        <v>0.3357148016386415</v>
+        <v>0.3357148016386416</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>-0.4483631648589294</v>
+        <v>-0.4483631648589286</v>
       </c>
       <c r="B34">
-        <v>-0.9928838378892161</v>
+        <v>-0.9928838378892074</v>
       </c>
       <c r="C34">
-        <v>-0.4025056216032178</v>
+        <v>-0.4025056216032119</v>
       </c>
       <c r="D34">
-        <v>0.5144957254529016</v>
+        <v>0.5144957254529018</v>
       </c>
       <c r="E34">
-        <v>-0.5773486457496418</v>
+        <v>-0.5773486457496423</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>0.9059357700202836</v>
+        <v>0.9059357700202828</v>
       </c>
       <c r="B35">
-        <v>0.2269979948590126</v>
+        <v>0.2269979948590099</v>
       </c>
       <c r="C35">
-        <v>0.257433799442646</v>
+        <v>0.2574337994426434</v>
       </c>
       <c r="D35">
         <v>-1.099149781682116</v>
       </c>
       <c r="E35">
-        <v>0.8815558265086725</v>
+        <v>0.8815558265086719</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>-1.380597851622062</v>
+        <v>-1.380597851622058</v>
       </c>
       <c r="B36">
-        <v>-1.744382325587691</v>
+        <v>-1.744382325587693</v>
       </c>
       <c r="C36">
-        <v>1.346638438723039</v>
+        <v>1.346638438723036</v>
       </c>
       <c r="D36">
         <v>-0.3025793928997187</v>
       </c>
       <c r="E36">
-        <v>-0.4118518686425363</v>
+        <v>-0.4118518686425368</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>1.034875543138708</v>
+        <v>1.034875543138706</v>
       </c>
       <c r="B37">
-        <v>0.3623866311226151</v>
+        <v>0.3623866311226228</v>
       </c>
       <c r="C37">
-        <v>-0.6891875609543524</v>
+        <v>-0.6891875609543472</v>
       </c>
       <c r="D37">
-        <v>0.7409918798535032</v>
+        <v>0.7409918798535033</v>
       </c>
       <c r="E37">
-        <v>-0.2933111143773745</v>
+        <v>-0.2933111143773746</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>-2.388909893637948</v>
+        <v>-2.388909893637945</v>
       </c>
       <c r="B38">
-        <v>0.5515658268104294</v>
+        <v>0.5515658268104223</v>
       </c>
       <c r="C38">
-        <v>0.9932868273210782</v>
+        <v>0.9932868273210766</v>
       </c>
       <c r="D38">
         <v>-2.740917369184981</v>
       </c>
       <c r="E38">
-        <v>-0.3100504385501559</v>
+        <v>-0.3100504385501556</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>-1.947176751074239</v>
+        <v>-1.947176751074237</v>
       </c>
       <c r="B39">
-        <v>-0.6089400629431981</v>
+        <v>-0.6089400629432002</v>
       </c>
       <c r="C39">
-        <v>0.8250408729189439</v>
+        <v>0.825040872918944</v>
       </c>
       <c r="D39">
-        <v>0.2377853745528015</v>
+        <v>0.2377853745528014</v>
       </c>
       <c r="E39">
-        <v>-0.3975669908539167</v>
+        <v>-0.3975669908539166</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>2.156438023170919</v>
+        <v>2.156438023170918</v>
       </c>
       <c r="B40">
-        <v>0.1723832340116052</v>
+        <v>0.1723832340116011</v>
       </c>
       <c r="C40">
-        <v>1.300652965142694</v>
+        <v>1.300652965142693</v>
       </c>
       <c r="D40">
         <v>1.443450771373068</v>
       </c>
       <c r="E40">
-        <v>-0.2205326928090525</v>
+        <v>-0.220532692809053</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>-1.514725882115298</v>
+        <v>-1.514725882115297</v>
       </c>
       <c r="B41">
-        <v>-0.3562851882749998</v>
+        <v>-0.3562851882750003</v>
       </c>
       <c r="C41">
-        <v>-0.2592299763066075</v>
+        <v>-0.2592299763066073</v>
       </c>
       <c r="D41">
         <v>-1.572849390609587</v>
@@ -1091,61 +1091,61 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>-0.3690842395437893</v>
+        <v>-0.3690842395437883</v>
       </c>
       <c r="B42">
-        <v>-0.1971113711046249</v>
+        <v>-0.1971113711046294</v>
       </c>
       <c r="C42">
-        <v>0.4060965652466109</v>
+        <v>0.4060965652466072</v>
       </c>
       <c r="D42">
-        <v>0.3023899754424035</v>
+        <v>0.3023899754424034</v>
       </c>
       <c r="E42">
-        <v>0.2240898597943798</v>
+        <v>0.2240898597943797</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>0.4824870732318633</v>
+        <v>0.4824870732318624</v>
       </c>
       <c r="B43">
-        <v>0.2795902286275226</v>
+        <v>0.2795902286275312</v>
       </c>
       <c r="C43">
-        <v>-0.3157714790712808</v>
+        <v>-0.3157714790712723</v>
       </c>
       <c r="D43">
-        <v>0.3724331598820622</v>
+        <v>0.3724331598820624</v>
       </c>
       <c r="E43">
-        <v>-1.050701296410433</v>
+        <v>-1.050701296410434</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>-1.191029147566261</v>
+        <v>-1.19102914756626</v>
       </c>
       <c r="B44">
-        <v>0.1994349679996264</v>
+        <v>0.199434967999624</v>
       </c>
       <c r="C44">
-        <v>0.474172856003457</v>
+        <v>0.4741728560034574</v>
       </c>
       <c r="D44">
         <v>1.717458837988622</v>
       </c>
       <c r="E44">
-        <v>0.7355457304252095</v>
+        <v>0.7355457304252094</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>-0.5693807309268085</v>
+        <v>-0.5693807309268054</v>
       </c>
       <c r="B45">
-        <v>-1.19097141548161</v>
+        <v>-1.190971415481613</v>
       </c>
       <c r="C45">
         <v>2.231280925447147</v>
@@ -1159,33 +1159,33 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>-0.9296639000096042</v>
+        <v>-0.9296639000096053</v>
       </c>
       <c r="B46">
-        <v>0.9372567109206578</v>
+        <v>0.9372567109206613</v>
       </c>
       <c r="C46">
-        <v>-0.9492227203645194</v>
+        <v>-0.9492227203645153</v>
       </c>
       <c r="D46">
-        <v>-0.7956348186933319</v>
+        <v>-0.7956348186933317</v>
       </c>
       <c r="E46">
-        <v>-0.1502087176248925</v>
+        <v>-0.1502087176248924</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>0.3037148045372096</v>
+        <v>0.3037148045372084</v>
       </c>
       <c r="B47">
-        <v>0.5346524281739102</v>
+        <v>0.5346524281739107</v>
       </c>
       <c r="C47">
-        <v>-0.1816466689437212</v>
+        <v>-0.1816466689437216</v>
       </c>
       <c r="D47">
-        <v>0.6063440945242425</v>
+        <v>0.6063440945242424</v>
       </c>
       <c r="E47">
         <v>0.3598231911791424</v>
@@ -1193,30 +1193,30 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>2.025021974485476</v>
+        <v>2.025021974485475</v>
       </c>
       <c r="B48">
-        <v>-0.1130839768651359</v>
+        <v>-0.1130839768651364</v>
       </c>
       <c r="C48">
-        <v>-0.3461216636284063</v>
+        <v>-0.3461216636284087</v>
       </c>
       <c r="D48">
-        <v>2.828336995915992</v>
+        <v>2.828336995915993</v>
       </c>
       <c r="E48">
-        <v>0.3398832572086806</v>
+        <v>0.3398832572086801</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>2.596573923849232</v>
+        <v>2.596573923849231</v>
       </c>
       <c r="B49">
-        <v>0.008044604852911726</v>
+        <v>0.008044604852917282</v>
       </c>
       <c r="C49">
-        <v>0.3125734359092243</v>
+        <v>0.3125734359092281</v>
       </c>
       <c r="D49">
         <v>1.919210937935986</v>
@@ -1227,16 +1227,16 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>-0.9485970976899504</v>
+        <v>-0.9485970976899493</v>
       </c>
       <c r="B50">
-        <v>0.1600089811264117</v>
+        <v>0.1600089811264064</v>
       </c>
       <c r="C50">
-        <v>0.8103988719795773</v>
+        <v>0.8103988719795746</v>
       </c>
       <c r="D50">
-        <v>-1.470647371475112</v>
+        <v>-1.470647371475113</v>
       </c>
       <c r="E50">
         <v>0.4886407101430044</v>
@@ -1244,13 +1244,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>-1.00502506585845</v>
+        <v>-1.005025065858452</v>
       </c>
       <c r="B51">
-        <v>2.412533097589526</v>
+        <v>2.412533097589522</v>
       </c>
       <c r="C51">
-        <v>-0.2234121970921334</v>
+        <v>-0.2234121970921317</v>
       </c>
       <c r="D51">
         <v>-1.572849390609587</v>
@@ -1261,30 +1261,30 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>0.3452397803527764</v>
+        <v>0.3452397803527752</v>
       </c>
       <c r="B52">
-        <v>0.6321114815578989</v>
+        <v>0.6321114815578996</v>
       </c>
       <c r="C52">
-        <v>-0.4683216585743009</v>
+        <v>-0.468321658574302</v>
       </c>
       <c r="D52">
-        <v>0.3771456558390946</v>
+        <v>0.3771456558390944</v>
       </c>
       <c r="E52">
-        <v>1.211645737936862</v>
+        <v>1.211645737936863</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>-0.6652550423259261</v>
+        <v>-0.665255042325926</v>
       </c>
       <c r="B53">
-        <v>0.2388863123008381</v>
+        <v>0.2388863123008368</v>
       </c>
       <c r="C53">
-        <v>-0.5095496797764966</v>
+        <v>-0.5095496797764961</v>
       </c>
       <c r="D53">
         <v>0.8456936127164788</v>
@@ -1295,50 +1295,50 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>-0.7037030106481439</v>
+        <v>-0.7037030106481416</v>
       </c>
       <c r="B54">
-        <v>-2.229871276023652</v>
+        <v>-2.229871276023646</v>
       </c>
       <c r="C54">
-        <v>0.01696579965782496</v>
+        <v>0.01696579965782583</v>
       </c>
       <c r="D54">
         <v>1.886326015648145</v>
       </c>
       <c r="E54">
-        <v>0.356915491848161</v>
+        <v>0.3569154918481615</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>0.9247980705064898</v>
+        <v>0.9247980705064908</v>
       </c>
       <c r="B55">
-        <v>-1.814402012930916</v>
+        <v>-1.814402012930917</v>
       </c>
       <c r="C55">
-        <v>-0.01226992880355024</v>
+        <v>-0.01226992880355693</v>
       </c>
       <c r="D55">
         <v>3.652387738417137</v>
       </c>
       <c r="E55">
-        <v>0.1333755608005556</v>
+        <v>0.1333755608005558</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>0.1248190827259097</v>
+        <v>0.1248190827259106</v>
       </c>
       <c r="B56">
-        <v>-1.272803918290905</v>
+        <v>-1.272803918290906</v>
       </c>
       <c r="C56">
-        <v>-0.2949382896376632</v>
+        <v>-0.2949382896376669</v>
       </c>
       <c r="D56">
-        <v>0.4845496729866165</v>
+        <v>0.4845496729866167</v>
       </c>
       <c r="E56">
         <v>0.2429964460998577</v>
@@ -1346,13 +1346,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>-0.8305808492332326</v>
+        <v>-0.8305808492332339</v>
       </c>
       <c r="B57">
-        <v>0.6988734421962243</v>
+        <v>0.6988734421962297</v>
       </c>
       <c r="C57">
-        <v>-1.56907412440041</v>
+        <v>-1.569074124400406</v>
       </c>
       <c r="D57">
         <v>-1.525337478394635</v>
@@ -1366,16 +1366,16 @@
         <v>2.470874892833353</v>
       </c>
       <c r="B58">
-        <v>-0.4440153571498727</v>
+        <v>-0.4440153571498716</v>
       </c>
       <c r="C58">
-        <v>0.8915592433102983</v>
+        <v>0.8915592433102989</v>
       </c>
       <c r="D58">
-        <v>3.804364797958056</v>
+        <v>3.804364797958057</v>
       </c>
       <c r="E58">
-        <v>0.2012422264929368</v>
+        <v>0.201242226492937</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1383,30 +1383,30 @@
         <v>-0.166887803385974</v>
       </c>
       <c r="B59">
-        <v>0.2392375429626274</v>
+        <v>0.2392375429626253</v>
       </c>
       <c r="C59">
-        <v>0.01497341568371526</v>
+        <v>0.01497341568371335</v>
       </c>
       <c r="D59">
-        <v>1.851870037780874</v>
+        <v>1.851870037780873</v>
       </c>
       <c r="E59">
-        <v>-0.6889735875939034</v>
+        <v>-0.688973587593904</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>0.8248126869988487</v>
+        <v>0.8248126869988468</v>
       </c>
       <c r="B60">
-        <v>0.526803811877857</v>
+        <v>0.5268038118778591</v>
       </c>
       <c r="C60">
         <v>-1.386777017649553</v>
       </c>
       <c r="D60">
-        <v>-0.8703904990900225</v>
+        <v>-0.8703904990900223</v>
       </c>
       <c r="E60">
         <v>-1.137764595767375</v>
@@ -1414,13 +1414,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>1.24840536387643</v>
+        <v>1.248405363876431</v>
       </c>
       <c r="B61">
-        <v>-1.17514091460906</v>
+        <v>-1.175140914609062</v>
       </c>
       <c r="C61">
-        <v>0.1637857006745605</v>
+        <v>0.1637857006745561</v>
       </c>
       <c r="D61">
         <v>2.247909111471062</v>
@@ -1431,19 +1431,19 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>0.5102694853687154</v>
+        <v>0.5102694853687146</v>
       </c>
       <c r="B62">
-        <v>0.2737405198650556</v>
+        <v>0.2737405198650543</v>
       </c>
       <c r="C62">
-        <v>-0.3411955298842845</v>
+        <v>-0.3411955298842854</v>
       </c>
       <c r="D62">
         <v>1.622671599095726</v>
       </c>
       <c r="E62">
-        <v>0.1628489591638165</v>
+        <v>0.1628489591638164</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1451,118 +1451,118 @@
         <v>-1.356418232871583</v>
       </c>
       <c r="B63">
-        <v>0.2448715253480479</v>
+        <v>0.2448715253480488</v>
       </c>
       <c r="C63">
-        <v>-1.312901226752308</v>
+        <v>-1.312901226752309</v>
       </c>
       <c r="D63">
         <v>-1.356031144642057</v>
       </c>
       <c r="E63">
-        <v>0.2503655114675772</v>
+        <v>0.2503655114675774</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>1.350174683160772</v>
+        <v>1.350174683160768</v>
       </c>
       <c r="B64">
         <v>2.46684479593165</v>
       </c>
       <c r="C64">
-        <v>-0.4774484596514935</v>
+        <v>-0.4774484596514892</v>
       </c>
       <c r="D64">
-        <v>0.5788977557864589</v>
+        <v>0.5788977557864585</v>
       </c>
       <c r="E64">
-        <v>-0.3518046581570764</v>
+        <v>-0.3518046581570758</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>-0.8079294192963014</v>
+        <v>-0.8079294192963031</v>
       </c>
       <c r="B65">
-        <v>0.8740610870531424</v>
+        <v>0.8740610870531539</v>
       </c>
       <c r="C65">
-        <v>-1.771411667540519</v>
+        <v>-1.77141166754051</v>
       </c>
       <c r="D65">
         <v>-1.54810533615635</v>
       </c>
       <c r="E65">
-        <v>0.6369449101305094</v>
+        <v>0.6369449101305095</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>0.2735501665945262</v>
+        <v>0.2735501665945247</v>
       </c>
       <c r="B66">
-        <v>1.490842221382335</v>
+        <v>1.490842221382342</v>
       </c>
       <c r="C66">
-        <v>0.7759765339813164</v>
+        <v>0.7759765339813276</v>
       </c>
       <c r="D66">
         <v>-2.8928944287259</v>
       </c>
       <c r="E66">
-        <v>-0.377917104242537</v>
+        <v>-0.3779171042425368</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>0.04039293480577404</v>
+        <v>0.04039293480577277</v>
       </c>
       <c r="B67">
-        <v>0.4800635415033914</v>
+        <v>0.4800635415033916</v>
       </c>
       <c r="C67">
-        <v>-1.238032621472829</v>
+        <v>-1.238032621472831</v>
       </c>
       <c r="D67">
         <v>-1.08967444380509</v>
       </c>
       <c r="E67">
-        <v>-0.6914280339780654</v>
+        <v>-0.6914280339780651</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>-0.9878778603780277</v>
+        <v>-0.9878778603780287</v>
       </c>
       <c r="B68">
-        <v>2.279121811795817</v>
+        <v>2.279121811795811</v>
       </c>
       <c r="C68">
-        <v>0.00420160128511124</v>
+        <v>0.004201601285111669</v>
       </c>
       <c r="D68">
-        <v>-0.3698862780738673</v>
+        <v>-0.3698862780738674</v>
       </c>
       <c r="E68">
-        <v>0.1023513588391547</v>
+        <v>0.1023513588391549</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>-1.679655258386665</v>
+        <v>-1.679655258386663</v>
       </c>
       <c r="B69">
-        <v>-0.8854513359117502</v>
+        <v>-0.8854513359117496</v>
       </c>
       <c r="C69">
-        <v>0.6251827740381912</v>
+        <v>0.6251827740381908</v>
       </c>
       <c r="D69">
-        <v>-0.8803049930601025</v>
+        <v>-0.8803049930601023</v>
       </c>
       <c r="E69">
-        <v>-0.7322786107989646</v>
+        <v>-0.7322786107989651</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1570,50 +1570,50 @@
         <v>1.297402431715713</v>
       </c>
       <c r="B70">
-        <v>0.5113556294920415</v>
+        <v>0.5113556294920344</v>
       </c>
       <c r="C70">
-        <v>2.112307180179437</v>
+        <v>2.112307180179435</v>
       </c>
       <c r="D70">
-        <v>0.3226581194756175</v>
+        <v>0.3226581194756174</v>
       </c>
       <c r="E70">
-        <v>0.5806157653758869</v>
+        <v>0.5806157653758866</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>-0.7701087951627517</v>
+        <v>-0.770108795162752</v>
       </c>
       <c r="B71">
-        <v>1.306445486665083</v>
+        <v>1.306445486665077</v>
       </c>
       <c r="C71">
-        <v>0.3765097655380206</v>
+        <v>0.376509765538021</v>
       </c>
       <c r="D71">
-        <v>-1.612709937045952</v>
+        <v>-1.612709937045953</v>
       </c>
       <c r="E71">
-        <v>0.01528805948221312</v>
+        <v>0.01528805948221321</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>1.45482701745463</v>
+        <v>1.454827017454628</v>
       </c>
       <c r="B72">
-        <v>1.624033271535844</v>
+        <v>1.624033271535845</v>
       </c>
       <c r="C72">
-        <v>0.09483390865545929</v>
+        <v>0.0948339086554631</v>
       </c>
       <c r="D72">
         <v>1.014763360932048</v>
       </c>
       <c r="E72">
-        <v>-0.1086177036057085</v>
+        <v>-0.1086177036057086</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1621,78 +1621,78 @@
         <v>1.26708224627679</v>
       </c>
       <c r="B73">
-        <v>-1.375001567774559</v>
+        <v>-1.375001567774557</v>
       </c>
       <c r="C73">
-        <v>-0.288678920579164</v>
+        <v>-0.2886789205791666</v>
       </c>
       <c r="D73">
         <v>1.413504718906783</v>
       </c>
       <c r="E73">
-        <v>0.5998123990404471</v>
+        <v>0.5998123990404469</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>-0.944567085099526</v>
+        <v>-0.9445670850995241</v>
       </c>
       <c r="B74">
-        <v>-1.455103634233903</v>
+        <v>-1.455103634233908</v>
       </c>
       <c r="C74">
-        <v>-0.5369070516292634</v>
+        <v>-0.5369070516292708</v>
       </c>
       <c r="D74">
-        <v>0.7682356480352418</v>
+        <v>0.7682356480352417</v>
       </c>
       <c r="E74">
-        <v>0.02220387190311338</v>
+        <v>0.02220387190311361</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>-3.098272963534539</v>
+        <v>-3.098272963534538</v>
       </c>
       <c r="B75">
-        <v>-0.08152920164914168</v>
+        <v>-0.08152920164913932</v>
       </c>
       <c r="C75">
-        <v>-1.092542411309235</v>
+        <v>-1.092542411309232</v>
       </c>
       <c r="D75">
-        <v>-2.835704608077877</v>
+        <v>-2.835704608077878</v>
       </c>
       <c r="E75">
-        <v>-0.8827472098115491</v>
+        <v>-0.8827472098115487</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>-0.4536556157115219</v>
+        <v>-0.4536556157115235</v>
       </c>
       <c r="B76">
-        <v>1.101229877243197</v>
+        <v>1.101229877243201</v>
       </c>
       <c r="C76">
-        <v>-1.69279754981578</v>
+        <v>-1.692797549815778</v>
       </c>
       <c r="D76">
         <v>0.1905100478748579</v>
       </c>
       <c r="E76">
-        <v>-0.298222870253315</v>
+        <v>-0.2982228702533149</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>-1.747419218122238</v>
+        <v>-1.747419218122237</v>
       </c>
       <c r="B77">
-        <v>0.9034706615107919</v>
+        <v>0.9034706615107986</v>
       </c>
       <c r="C77">
-        <v>0.3203965572086392</v>
+        <v>0.3203965572086503</v>
       </c>
       <c r="D77">
         <v>-1.981268657017393</v>
@@ -1703,81 +1703,81 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>-0.004825761870600754</v>
+        <v>-0.004825761870600022</v>
       </c>
       <c r="B78">
-        <v>-0.3999646307937284</v>
+        <v>-0.3999646307937303</v>
       </c>
       <c r="C78">
-        <v>0.3553077174807919</v>
+        <v>0.3553077174807904</v>
       </c>
       <c r="D78">
-        <v>-0.2377382064731078</v>
+        <v>-0.2377382064731077</v>
       </c>
       <c r="E78">
-        <v>0.9811899944683564</v>
+        <v>0.9811899944683563</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>0.9780544131036212</v>
+        <v>0.9780544131036192</v>
       </c>
       <c r="B79">
-        <v>0.3959706927982911</v>
+        <v>0.3959706927983019</v>
       </c>
       <c r="C79">
-        <v>-0.9952766465621615</v>
+        <v>-0.9952766465621543</v>
       </c>
       <c r="D79">
         <v>2.561541138985972</v>
       </c>
       <c r="E79">
-        <v>0.1141789271359956</v>
+        <v>0.1141789271359957</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>-0.5020714031458531</v>
+        <v>-0.5020714031458525</v>
       </c>
       <c r="B80">
-        <v>-0.223942352703554</v>
+        <v>-0.2239423527035503</v>
       </c>
       <c r="C80">
-        <v>0.2339969029091371</v>
+        <v>0.2339969029091417</v>
       </c>
       <c r="D80">
-        <v>-0.4520567387121368</v>
+        <v>-0.4520567387121366</v>
       </c>
       <c r="E80">
-        <v>-2.011691475520636</v>
+        <v>-2.011691475520637</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>2.981417012583666</v>
+        <v>2.981417012583664</v>
       </c>
       <c r="B81">
-        <v>-0.5227592046765142</v>
+        <v>-0.5227592046765109</v>
       </c>
       <c r="C81">
-        <v>0.4898900082879807</v>
+        <v>0.489890008287981</v>
       </c>
       <c r="D81">
-        <v>3.226639197797672</v>
+        <v>3.226639197797673</v>
       </c>
       <c r="E81">
-        <v>-0.1191845156634914</v>
+        <v>-0.1191845156634911</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>-2.418634413787796</v>
+        <v>-2.418634413787794</v>
       </c>
       <c r="B82">
-        <v>-0.00377352417916777</v>
+        <v>-0.003773524179169702</v>
       </c>
       <c r="C82">
-        <v>1.395954809425338</v>
+        <v>1.39595480942534</v>
       </c>
       <c r="D82">
         <v>-1.981268657017393</v>
@@ -1788,13 +1788,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>1.168552503003253</v>
+        <v>1.168552503003254</v>
       </c>
       <c r="B83">
-        <v>-0.9249149637274054</v>
+        <v>-0.9249149637274109</v>
       </c>
       <c r="C83">
-        <v>0.4036815661644241</v>
+        <v>0.403681566164418</v>
       </c>
       <c r="D83">
         <v>1.430833993118442</v>
@@ -1805,47 +1805,47 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>-0.3202585627331845</v>
+        <v>-0.3202585627331849</v>
       </c>
       <c r="B84">
         <v>1.532950476144197</v>
       </c>
       <c r="C84">
-        <v>1.369020696824161</v>
+        <v>1.369020696824168</v>
       </c>
       <c r="D84">
         <v>-0.3126964574258439</v>
       </c>
       <c r="E84">
-        <v>-0.4024787467298574</v>
+        <v>-0.4024787467298571</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>0.07352269453223818</v>
+        <v>0.07352269453223871</v>
       </c>
       <c r="B85">
-        <v>-0.418043849463305</v>
+        <v>-0.4180438494633072</v>
       </c>
       <c r="C85">
-        <v>0.1780200984578265</v>
+        <v>0.1780200984578238</v>
       </c>
       <c r="D85">
-        <v>0.2751462072606652</v>
+        <v>0.2751462072606651</v>
       </c>
       <c r="E85">
-        <v>-0.09142512648610795</v>
+        <v>-0.09142512648610825</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>-2.642484667839015</v>
+        <v>-2.642484667839013</v>
       </c>
       <c r="B86">
-        <v>0.9300013426712674</v>
+        <v>0.9300013426712663</v>
       </c>
       <c r="C86">
-        <v>1.429118219884091</v>
+        <v>1.429118219884096</v>
       </c>
       <c r="D86">
         <v>-1.876803509691426</v>
@@ -1859,47 +1859,47 @@
         <v>1.07976461309078</v>
       </c>
       <c r="B87">
-        <v>-0.2484763809620202</v>
+        <v>-0.2484763809620203</v>
       </c>
       <c r="C87">
-        <v>0.7548664712767197</v>
+        <v>0.7548664712767202</v>
       </c>
       <c r="D87">
         <v>2.591487191452257</v>
       </c>
       <c r="E87">
-        <v>-0.706166164713504</v>
+        <v>-0.7061661647135041</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>-2.37026352585649</v>
+        <v>-2.370263525856489</v>
       </c>
       <c r="B88">
-        <v>-0.0206646150084831</v>
+        <v>-0.02066461500848104</v>
       </c>
       <c r="C88">
-        <v>-0.6751005474919881</v>
+        <v>-0.6751005474919858</v>
       </c>
       <c r="D88">
-        <v>-0.9503141625187975</v>
+        <v>-0.9503141625187979</v>
       </c>
       <c r="E88">
-        <v>0.9177846948127136</v>
+        <v>0.9177846948127145</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>0.6685502107775279</v>
+        <v>0.6685502107775289</v>
       </c>
       <c r="B89">
-        <v>-0.1773378206084506</v>
+        <v>-0.1773378206084517</v>
       </c>
       <c r="C89">
-        <v>2.256755226661013</v>
+        <v>2.256755226661016</v>
       </c>
       <c r="D89">
-        <v>0.240487658837348</v>
+        <v>0.2404876588373482</v>
       </c>
       <c r="E89">
         <v>-1.533427068983904</v>
@@ -1907,47 +1907,47 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>0.2157383180705202</v>
+        <v>0.215738318070519</v>
       </c>
       <c r="B90">
-        <v>1.072324970352796</v>
+        <v>1.072324970352791</v>
       </c>
       <c r="C90">
-        <v>-0.1705741764857542</v>
+        <v>-0.1705741764857586</v>
       </c>
       <c r="D90">
-        <v>0.3125410549494924</v>
+        <v>0.3125410549494923</v>
       </c>
       <c r="E90">
-        <v>0.5899888872885659</v>
+        <v>0.5899888872885665</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>-2.043093225711557</v>
+        <v>-2.043093225711555</v>
       </c>
       <c r="B91">
-        <v>-0.2977825252225466</v>
+        <v>-0.2977825252225484</v>
       </c>
       <c r="C91">
-        <v>-0.104484590375803</v>
+        <v>-0.1044845903758032</v>
       </c>
       <c r="D91">
         <v>-2.90280892269598</v>
       </c>
       <c r="E91">
-        <v>0.027568880725873</v>
+        <v>0.02756888072587307</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>0.6615242039574661</v>
+        <v>0.6615242039574675</v>
       </c>
       <c r="B92">
-        <v>-1.760344979742641</v>
+        <v>-1.760344979742634</v>
       </c>
       <c r="C92">
-        <v>0.2832878683019531</v>
+        <v>0.2832878683019564</v>
       </c>
       <c r="D92">
         <v>1.383558666440498</v>
@@ -1958,13 +1958,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>-2.453349637502698</v>
+        <v>-2.453349637502697</v>
       </c>
       <c r="B93">
-        <v>0.4227160806656158</v>
+        <v>0.4227160806656157</v>
       </c>
       <c r="C93">
-        <v>0.06152792873038068</v>
+        <v>0.0615279287303827</v>
       </c>
       <c r="D93">
         <v>-1.62012471728753</v>
@@ -1975,47 +1975,47 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>0.3569476553477053</v>
+        <v>0.3569476553477039</v>
       </c>
       <c r="B94">
-        <v>1.251750010193865</v>
+        <v>1.251750010193864</v>
       </c>
       <c r="C94">
-        <v>0.3473522621900846</v>
+        <v>0.3473522621900861</v>
       </c>
       <c r="D94">
-        <v>0.2377853745528015</v>
+        <v>0.2377853745528014</v>
       </c>
       <c r="E94">
-        <v>-0.3975669908539167</v>
+        <v>-0.3975669908539166</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>0.6427033414679447</v>
+        <v>0.6427033414679442</v>
       </c>
       <c r="B95">
-        <v>0.08886816614126486</v>
+        <v>0.0888681661412606</v>
       </c>
       <c r="C95">
-        <v>-0.2416049502545085</v>
+        <v>-0.2416049502545137</v>
       </c>
       <c r="D95">
-        <v>-0.01865683231408494</v>
+        <v>-0.01865683231408497</v>
       </c>
       <c r="E95">
-        <v>0.1387405696233155</v>
+        <v>0.1387405696233156</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>-0.6090655430469484</v>
+        <v>-0.6090655430469466</v>
       </c>
       <c r="B96">
-        <v>-0.4868024723172788</v>
+        <v>-0.48680247231728</v>
       </c>
       <c r="C96">
-        <v>1.698613962013722</v>
+        <v>1.698613962013721</v>
       </c>
       <c r="D96">
         <v>-1.041723375497084</v>
@@ -2026,36 +2026,36 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>-1.385170881924753</v>
+        <v>-1.38517088192475</v>
       </c>
       <c r="B97">
-        <v>0.07175748118366837</v>
+        <v>0.07175748118365628</v>
       </c>
       <c r="C97">
-        <v>1.745770990986949</v>
+        <v>1.745770990986943</v>
       </c>
       <c r="D97">
         <v>-1.55528353086092</v>
       </c>
       <c r="E97">
-        <v>0.2818429663757975</v>
+        <v>0.2818429663757979</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>-1.628900041971917</v>
+        <v>-1.628900041971915</v>
       </c>
       <c r="B98">
-        <v>-0.6520322031795532</v>
+        <v>-0.65203220317956</v>
       </c>
       <c r="C98">
-        <v>0.7123493228549033</v>
+        <v>0.7123493228548968</v>
       </c>
       <c r="D98">
-        <v>-0.4944169988770027</v>
+        <v>-0.494416998877003</v>
       </c>
       <c r="E98">
-        <v>0.7461125424829922</v>
+        <v>0.746112542482992</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2063,44 +2063,44 @@
         <v>1.505601503095851</v>
       </c>
       <c r="B99">
-        <v>0.2661507766044566</v>
+        <v>0.2661507766044527</v>
       </c>
       <c r="C99">
-        <v>1.212556929275787</v>
+        <v>1.212556929275785</v>
       </c>
       <c r="D99">
         <v>2.145707092336587</v>
       </c>
       <c r="E99">
-        <v>-0.5438671342964619</v>
+        <v>-0.5438671342964617</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>2.289629744807642</v>
+        <v>2.289629744807641</v>
       </c>
       <c r="B100">
-        <v>-1.01951131855225</v>
+        <v>-1.019511318552251</v>
       </c>
       <c r="C100">
-        <v>-1.242617317263961</v>
+        <v>-1.242617317263968</v>
       </c>
       <c r="D100">
         <v>1.575396272417783</v>
       </c>
       <c r="E100">
-        <v>0.2621930797644182</v>
+        <v>0.2621930797644183</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>-0.1619098333197393</v>
+        <v>-0.1619098333197385</v>
       </c>
       <c r="B101">
-        <v>-0.8257472557381407</v>
+        <v>-0.8257472557381406</v>
       </c>
       <c r="C101">
-        <v>-0.2104217059770623</v>
+        <v>-0.2104217059770643</v>
       </c>
       <c r="D101">
         <v>0.2776459209891664</v>
@@ -2111,19 +2111,19 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>-0.5011892299725376</v>
+        <v>-0.5011892299725369</v>
       </c>
       <c r="B102">
-        <v>-0.07167440168982668</v>
+        <v>-0.07167440168982399</v>
       </c>
       <c r="C102">
-        <v>0.7505311861232417</v>
+        <v>0.7505311861232451</v>
       </c>
       <c r="D102">
         <v>-1.79193076476861</v>
       </c>
       <c r="E102">
-        <v>-0.3680935924906558</v>
+        <v>-0.368093592490656</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2131,16 +2131,16 @@
         <v>-1.68416711296895</v>
       </c>
       <c r="B103">
-        <v>0.144588735399103</v>
+        <v>0.1445887353991117</v>
       </c>
       <c r="C103">
-        <v>-1.33855609341212</v>
+        <v>-1.338556093412114</v>
       </c>
       <c r="D103">
         <v>-0.643894344689421</v>
       </c>
       <c r="E103">
-        <v>-0.8537270643951075</v>
+        <v>-0.8537270643951077</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2148,10 +2148,10 @@
         <v>1.619627203558878</v>
       </c>
       <c r="B104">
-        <v>-1.186824765004138</v>
+        <v>-1.18682476500414</v>
       </c>
       <c r="C104">
-        <v>0.2240595614111835</v>
+        <v>0.2240595614111771</v>
       </c>
       <c r="D104">
         <v>0.8456936127164788</v>
@@ -2162,13 +2162,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>-2.269398383425711</v>
+        <v>-2.269398383425709</v>
       </c>
       <c r="B105">
-        <v>0.09526244735863597</v>
+        <v>0.09526244735863638</v>
       </c>
       <c r="C105">
-        <v>1.456260360564538</v>
+        <v>1.456260360564545</v>
       </c>
       <c r="D105">
         <v>-1.4782987372537</v>
@@ -2179,13 +2179,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>1.63498050367563</v>
+        <v>1.634980503675628</v>
       </c>
       <c r="B106">
-        <v>-0.4462008518954818</v>
+        <v>-0.4462008518954707</v>
       </c>
       <c r="C106">
-        <v>-0.7362873898061628</v>
+        <v>-0.7362873898061586</v>
       </c>
       <c r="D106">
         <v>1.52788436020283</v>
@@ -2196,152 +2196,152 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>0.1039672688192025</v>
+        <v>0.1039672688192038</v>
       </c>
       <c r="B107">
-        <v>-1.117965584127963</v>
+        <v>-1.117965584127965</v>
       </c>
       <c r="C107">
-        <v>0.329921585105272</v>
+        <v>0.3299215851052679</v>
       </c>
       <c r="D107">
         <v>1.281593232843032</v>
       </c>
       <c r="E107">
-        <v>0.4923587758738417</v>
+        <v>0.4923587758738422</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <v>-2.622871671130182</v>
+        <v>-2.622871671130181</v>
       </c>
       <c r="B108">
-        <v>0.5333237838644468</v>
+        <v>0.5333237838644433</v>
       </c>
       <c r="C108">
-        <v>0.5833421539826086</v>
+        <v>0.5833421539826108</v>
       </c>
       <c r="D108">
         <v>-2.436963250103142</v>
       </c>
       <c r="E108">
-        <v>-0.1743171071653932</v>
+        <v>-0.1743171071653929</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
-        <v>-0.9180850877151864</v>
+        <v>-0.9180850877151874</v>
       </c>
       <c r="B109">
-        <v>0.7444848013638391</v>
+        <v>0.7444848013638361</v>
       </c>
       <c r="C109">
-        <v>-1.466474956465945</v>
+        <v>-1.466474956465947</v>
       </c>
       <c r="D109">
-        <v>-1.092174157533591</v>
+        <v>-1.092174157533592</v>
       </c>
       <c r="E109">
-        <v>0.8405449072076531</v>
+        <v>0.8405449072076533</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110">
-        <v>-1.969512048839507</v>
+        <v>-1.969512048839505</v>
       </c>
       <c r="B110">
-        <v>-0.9267189349754965</v>
+        <v>-0.9267189349755015</v>
       </c>
       <c r="C110">
-        <v>-0.491086367894534</v>
+        <v>-0.4910863678945405</v>
       </c>
       <c r="D110">
         <v>-2.808021683803085</v>
       </c>
       <c r="E110">
-        <v>0.6002656519872662</v>
+        <v>0.6002656519872663</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111">
-        <v>0.08815336933701441</v>
+        <v>0.08815336933701404</v>
       </c>
       <c r="B111">
-        <v>-0.6201979128169651</v>
+        <v>-0.6201979128169713</v>
       </c>
       <c r="C111">
-        <v>-1.828486034642118</v>
+        <v>-1.828486034642128</v>
       </c>
       <c r="D111">
         <v>-1.25156599731609</v>
       </c>
       <c r="E111">
-        <v>-0.3538087147020363</v>
+        <v>-0.3538087147020362</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112">
-        <v>3.450764039986982</v>
+        <v>3.450764039986978</v>
       </c>
       <c r="B112">
-        <v>1.10542737665333</v>
+        <v>1.105427376653329</v>
       </c>
       <c r="C112">
-        <v>-1.080375858699511</v>
+        <v>-1.080375858699512</v>
       </c>
       <c r="D112">
         <v>3.425891584016536</v>
       </c>
       <c r="E112">
-        <v>-0.1506619705717117</v>
+        <v>-0.1506619705717116</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113">
-        <v>0.8344930426248593</v>
+        <v>0.8344930426248587</v>
       </c>
       <c r="B113">
-        <v>-0.9889725408198394</v>
+        <v>-0.9889725408198402</v>
       </c>
       <c r="C113">
-        <v>-1.560966761684351</v>
+        <v>-1.560966761684357</v>
       </c>
       <c r="D113">
         <v>1.831838479284668</v>
       </c>
       <c r="E113">
-        <v>-0.274114480712814</v>
+        <v>-0.2741144807128142</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114">
-        <v>0.7200851689434081</v>
+        <v>0.7200851689434062</v>
       </c>
       <c r="B114">
-        <v>-0.1047639355404034</v>
+        <v>-0.1047639355403967</v>
       </c>
       <c r="C114">
-        <v>-1.241503878189058</v>
+        <v>-1.241503878189057</v>
       </c>
       <c r="D114">
-        <v>-0.2478552709992327</v>
+        <v>-0.2478552709992328</v>
       </c>
       <c r="E114">
-        <v>0.9905631163810357</v>
+        <v>0.9905631163810362</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115">
-        <v>-0.607153059321373</v>
+        <v>-0.6071530593213715</v>
       </c>
       <c r="B115">
-        <v>-0.9617720806531105</v>
+        <v>-0.9617720806531074</v>
       </c>
       <c r="C115">
-        <v>0.5527150150272964</v>
+        <v>0.552715015027298</v>
       </c>
       <c r="D115">
-        <v>0.06847904080022343</v>
+        <v>0.06847904080022349</v>
       </c>
       <c r="E115">
         <v>-1.186434627795196</v>
@@ -2349,13 +2349,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116">
-        <v>-0.3286388256213303</v>
+        <v>-0.3286388256213282</v>
       </c>
       <c r="B116">
-        <v>-1.684939382394751</v>
+        <v>-1.684939382394756</v>
       </c>
       <c r="C116">
-        <v>0.2514687127649106</v>
+        <v>0.2514687127649025</v>
       </c>
       <c r="D116">
         <v>-1.57511251880108</v>
@@ -2366,50 +2366,50 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117">
-        <v>1.599713119533642</v>
+        <v>1.599713119533641</v>
       </c>
       <c r="B117">
-        <v>-0.5817051639491811</v>
+        <v>-0.5817051639491843</v>
       </c>
       <c r="C117">
-        <v>-0.1138328657557048</v>
+        <v>-0.1138328657557095</v>
       </c>
       <c r="D117">
-        <v>-0.3124938868697987</v>
+        <v>-0.3124938868697988</v>
       </c>
       <c r="E117">
-        <v>-0.00636588367412601</v>
+        <v>-0.006365883674126658</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118">
-        <v>-1.877624293234264</v>
+        <v>-1.877624293234262</v>
       </c>
       <c r="B118">
-        <v>-1.50389375167893</v>
+        <v>-1.503893751678929</v>
       </c>
       <c r="C118">
-        <v>-0.9795814203707378</v>
+        <v>-0.9795814203707397</v>
       </c>
       <c r="D118">
         <v>-1.224119658578306</v>
       </c>
       <c r="E118">
-        <v>0.3578191346341826</v>
+        <v>0.3578191346341822</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119">
-        <v>0.7819529170786581</v>
+        <v>0.781952917078655</v>
       </c>
       <c r="B119">
-        <v>1.945503946427191</v>
+        <v>1.945503946427189</v>
       </c>
       <c r="C119">
-        <v>-0.9464319093530947</v>
+        <v>-0.9464319093530938</v>
       </c>
       <c r="D119">
-        <v>-2.628598285524381</v>
+        <v>-2.628598285524382</v>
       </c>
       <c r="E119">
         <v>1.379760167015867</v>
@@ -2417,16 +2417,16 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120">
-        <v>0.5829868679624401</v>
+        <v>0.5829868679624406</v>
       </c>
       <c r="B120">
-        <v>-1.434976589130724</v>
+        <v>-1.43497658913072</v>
       </c>
       <c r="C120">
-        <v>-0.6610428566776771</v>
+        <v>-0.6610428566776766</v>
       </c>
       <c r="D120">
-        <v>-0.9672042806374024</v>
+        <v>-0.9672042806374022</v>
       </c>
       <c r="E120">
         <v>1.364281599082143</v>
@@ -2434,16 +2434,16 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121">
-        <v>1.995182740706933</v>
+        <v>1.995182740706932</v>
       </c>
       <c r="B121">
-        <v>-0.7505797506477925</v>
+        <v>-0.7505797506477877</v>
       </c>
       <c r="C121">
-        <v>0.1166692888079708</v>
+        <v>0.1166692888079731</v>
       </c>
       <c r="D121">
-        <v>1.710044057747042</v>
+        <v>1.710044057747043</v>
       </c>
       <c r="E121">
         <v>-0.3909412257920987</v>
@@ -2451,19 +2451,19 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122">
-        <v>-0.8008065452380093</v>
+        <v>-0.8008065452380085</v>
       </c>
       <c r="B122">
-        <v>0.03528095417565077</v>
+        <v>0.03528095417564776</v>
       </c>
       <c r="C122">
-        <v>0.2747371188582879</v>
+        <v>0.2747371188582869</v>
       </c>
       <c r="D122">
-        <v>0.9127639123536191</v>
+        <v>0.9127639123536192</v>
       </c>
       <c r="E122">
-        <v>-1.411688568028679</v>
+        <v>-1.41168856802868</v>
       </c>
     </row>
   </sheetData>

--- a/_data/PCA_factor_loadings.xlsx
+++ b/_data/PCA_factor_loadings.xlsx
@@ -411,33 +411,33 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>0.3901893924380382</v>
+        <v>0.3901893924380388</v>
       </c>
       <c r="B2">
-        <v>0.2124359113059599</v>
+        <v>0.2124359113059577</v>
       </c>
       <c r="C2">
-        <v>-0.252284034332681</v>
+        <v>-0.2522840343326834</v>
       </c>
       <c r="D2">
-        <v>-0.01865683231408398</v>
+        <v>-0.0186568323140836</v>
       </c>
       <c r="E2">
-        <v>0.1387405696233151</v>
+        <v>0.1387405696233162</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>0.5602385707872765</v>
+        <v>0.5602385707872782</v>
       </c>
       <c r="B3">
-        <v>0.8116230580240451</v>
+        <v>0.8116230580240404</v>
       </c>
       <c r="C3">
-        <v>-0.5313867415773104</v>
+        <v>-0.5313867415773145</v>
       </c>
       <c r="D3">
-        <v>-0.03598610652574387</v>
+        <v>-0.03598610652574401</v>
       </c>
       <c r="E3">
         <v>-0.5822604016255818</v>
@@ -445,13 +445,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>1.014041152525132</v>
+        <v>1.014041152525131</v>
       </c>
       <c r="B4">
-        <v>-1.961228672526771</v>
+        <v>-1.96122867252678</v>
       </c>
       <c r="C4">
-        <v>-0.5420695226649309</v>
+        <v>-0.542069522664934</v>
       </c>
       <c r="D4">
         <v>1.936303626610636</v>
@@ -462,30 +462,30 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>0.1156642562486555</v>
+        <v>0.1156642562486552</v>
       </c>
       <c r="B5">
-        <v>0.3056691117903642</v>
+        <v>0.3056691117903682</v>
       </c>
       <c r="C5">
-        <v>0.6914038296667928</v>
+        <v>0.6914038296667959</v>
       </c>
       <c r="D5">
         <v>-1.241212347252955</v>
       </c>
       <c r="E5">
-        <v>0.4082031758478805</v>
+        <v>0.4082031758478811</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>2.05720723824247</v>
+        <v>2.057207238242471</v>
       </c>
       <c r="B6">
-        <v>-0.02706900180928927</v>
+        <v>-0.02706900180929024</v>
       </c>
       <c r="C6">
-        <v>0.8868777053492545</v>
+        <v>0.8868777053492533</v>
       </c>
       <c r="D6">
         <v>2.484522330397788</v>
@@ -496,13 +496,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>1.877607693111519</v>
+        <v>1.87760769311152</v>
       </c>
       <c r="B7">
-        <v>1.27758127965155</v>
+        <v>1.277581279651555</v>
       </c>
       <c r="C7">
-        <v>0.6556530747938041</v>
+        <v>0.6556530747938063</v>
       </c>
       <c r="D7">
         <v>1.109550599824944</v>
@@ -513,16 +513,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>1.207898517489297</v>
+        <v>1.207898517489298</v>
       </c>
       <c r="B8">
-        <v>0.7852885342828491</v>
+        <v>0.7852885342828536</v>
       </c>
       <c r="C8">
-        <v>1.099162223281539</v>
+        <v>1.099162223281541</v>
       </c>
       <c r="D8">
-        <v>0.08580831501188203</v>
+        <v>0.08580831501188206</v>
       </c>
       <c r="E8">
         <v>-0.465433656546298</v>
@@ -530,36 +530,36 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>-1.123816879760523</v>
+        <v>-1.123816879760525</v>
       </c>
       <c r="B9">
-        <v>-1.154092192212297</v>
+        <v>-1.154092192212298</v>
       </c>
       <c r="C9">
-        <v>0.1370091328632464</v>
+        <v>0.1370091328632462</v>
       </c>
       <c r="D9">
-        <v>-0.3698862780738674</v>
+        <v>-0.3698862780738673</v>
       </c>
       <c r="E9">
-        <v>0.1023513588391549</v>
+        <v>0.1023513588391547</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>1.168576885121369</v>
+        <v>1.16857688512137</v>
       </c>
       <c r="B10">
-        <v>-0.09542871945263323</v>
+        <v>-0.09542871945263499</v>
       </c>
       <c r="C10">
-        <v>-0.6610563448638201</v>
+        <v>-0.6610563448638203</v>
       </c>
       <c r="D10">
-        <v>0.6637705007092745</v>
+        <v>0.6637705007092746</v>
       </c>
       <c r="E10">
-        <v>0.6263780980727273</v>
+        <v>0.6263780980727269</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -567,13 +567,13 @@
         <v>-1.271706145384041</v>
       </c>
       <c r="B11">
-        <v>0.5052711166013976</v>
+        <v>0.5052711166013926</v>
       </c>
       <c r="C11">
-        <v>-0.9083088503123385</v>
+        <v>-0.9083088503123449</v>
       </c>
       <c r="D11">
-        <v>-1.326321677712781</v>
+        <v>-1.32632167771278</v>
       </c>
       <c r="E11">
         <v>-1.341364592844519</v>
@@ -581,16 +581,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>0.2450394837495259</v>
+        <v>0.2450394837495268</v>
       </c>
       <c r="B12">
-        <v>1.56458254477797</v>
+        <v>1.564582544777976</v>
       </c>
       <c r="C12">
         <v>1.134442653432272</v>
       </c>
       <c r="D12">
-        <v>0.4546036205203318</v>
+        <v>0.4546036205203317</v>
       </c>
       <c r="E12">
         <v>1.063341537949358</v>
@@ -598,47 +598,47 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>-1.412647159123935</v>
+        <v>-1.412647159123937</v>
       </c>
       <c r="B13">
-        <v>0.07522325061863284</v>
+        <v>0.07522325061863795</v>
       </c>
       <c r="C13">
-        <v>0.2458063195076722</v>
+        <v>0.2458063195076764</v>
       </c>
       <c r="D13">
         <v>-1.308755817964113</v>
       </c>
       <c r="E13">
-        <v>0.1510213908669757</v>
+        <v>0.1510213908669756</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>-0.4056059728435213</v>
+        <v>-0.4056059728435227</v>
       </c>
       <c r="B14">
-        <v>-1.193857858349094</v>
+        <v>-1.193857858349093</v>
       </c>
       <c r="C14">
-        <v>-0.1500937399476611</v>
+        <v>-0.1500937399476584</v>
       </c>
       <c r="D14">
-        <v>-0.2926648989296388</v>
+        <v>-0.2926648989296387</v>
       </c>
       <c r="E14">
-        <v>-0.8173378536109469</v>
+        <v>-0.8173378536109466</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>-0.1158129932932254</v>
+        <v>-0.1158129932932236</v>
       </c>
       <c r="B15">
-        <v>1.864315631201533</v>
+        <v>1.864315631201534</v>
       </c>
       <c r="C15">
-        <v>-0.4774673684580918</v>
+        <v>-0.4774673684580931</v>
       </c>
       <c r="D15">
         <v>-1.044898830855648</v>
@@ -649,30 +649,30 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>0.4989126090021718</v>
+        <v>0.4989126090021729</v>
       </c>
       <c r="B16">
-        <v>0.7543418559547285</v>
+        <v>0.7543418559547311</v>
       </c>
       <c r="C16">
-        <v>-0.07328629218367751</v>
+        <v>-0.07328629218367566</v>
       </c>
       <c r="D16">
         <v>0.6464412264976158</v>
       </c>
       <c r="E16">
-        <v>-0.09462287317617114</v>
+        <v>-0.09462287317617128</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>-0.2010566131526487</v>
+        <v>-0.201056613152649</v>
       </c>
       <c r="B17">
-        <v>-0.215779629939259</v>
+        <v>-0.2157796299392601</v>
       </c>
       <c r="C17">
-        <v>-0.0461854752000299</v>
+        <v>-0.04618547520003064</v>
       </c>
       <c r="D17">
         <v>-1.037247465077061</v>
@@ -683,33 +683,33 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>-1.093882559406712</v>
+        <v>-1.093882559406713</v>
       </c>
       <c r="B18">
-        <v>-1.61080595157236</v>
+        <v>-1.610805951572361</v>
       </c>
       <c r="C18">
-        <v>-1.147635867261732</v>
+        <v>-1.14763586726173</v>
       </c>
       <c r="D18">
-        <v>0.05586226254559692</v>
+        <v>0.05586226254559707</v>
       </c>
       <c r="E18">
-        <v>0.3549114353032021</v>
+        <v>0.3549114353032017</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>2.01132652365769</v>
+        <v>2.011326523657692</v>
       </c>
       <c r="B19">
-        <v>0.5560420602816873</v>
+        <v>0.5560420602816838</v>
       </c>
       <c r="C19">
-        <v>0.8198052869596134</v>
+        <v>0.819805286959608</v>
       </c>
       <c r="D19">
-        <v>0.2654682988275942</v>
+        <v>0.265468298827594</v>
       </c>
       <c r="E19">
         <v>1.085445870944898</v>
@@ -717,67 +717,67 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>0.381784179114944</v>
+        <v>0.3817841791149426</v>
       </c>
       <c r="B20">
-        <v>-0.6429232451968518</v>
+        <v>-0.6429232451968442</v>
       </c>
       <c r="C20">
-        <v>1.443519736889859</v>
+        <v>1.443519736889864</v>
       </c>
       <c r="D20">
-        <v>1.508089387243634</v>
+        <v>1.508089387243633</v>
       </c>
       <c r="E20">
-        <v>0.7763963072461099</v>
+        <v>0.7763963072461092</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>-0.1333596396236192</v>
+        <v>-0.1333596396236196</v>
       </c>
       <c r="B21">
-        <v>1.766742630596481</v>
+        <v>1.766742630596495</v>
       </c>
       <c r="C21">
-        <v>2.536697078873879</v>
+        <v>2.536697078873882</v>
       </c>
       <c r="D21">
-        <v>0.05880113236715232</v>
+        <v>0.05880113236715209</v>
       </c>
       <c r="E21">
-        <v>-0.009563630364189458</v>
+        <v>-0.009563630364189432</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>2.408368150079086</v>
+        <v>2.408368150079087</v>
       </c>
       <c r="B22">
-        <v>-0.5352576351292209</v>
+        <v>-0.5352576351292214</v>
       </c>
       <c r="C22">
-        <v>0.02290021295382621</v>
+        <v>0.02290021295382916</v>
       </c>
       <c r="D22">
         <v>2.589021492704719</v>
       </c>
       <c r="E22">
-        <v>1.20107892587908</v>
+        <v>1.201078925879079</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>1.637297927164747</v>
+        <v>1.637297927164749</v>
       </c>
       <c r="B23">
-        <v>-0.1700154521607138</v>
+        <v>-0.1700154521607218</v>
       </c>
       <c r="C23">
-        <v>-1.708448906189452</v>
+        <v>-1.708448906189455</v>
       </c>
       <c r="D23">
-        <v>1.625171312824228</v>
+        <v>1.625171312824227</v>
       </c>
       <c r="E23">
         <v>-1.369123982021902</v>
@@ -785,104 +785,104 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>0.6623491019558906</v>
+        <v>0.6623491019558918</v>
       </c>
       <c r="B24">
-        <v>-0.2656286087720032</v>
+        <v>-0.2656286087720053</v>
       </c>
       <c r="C24">
-        <v>-1.575754131583484</v>
+        <v>-1.575754131583481</v>
       </c>
       <c r="D24">
         <v>1.936303626610636</v>
       </c>
       <c r="E24">
-        <v>-0.8782887068824278</v>
+        <v>-0.8782887068824276</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>0.8903487560786992</v>
+        <v>0.8903487560786999</v>
       </c>
       <c r="B25">
-        <v>0.6663297019343442</v>
+        <v>0.6663297019343456</v>
       </c>
       <c r="C25">
-        <v>0.5656643349937737</v>
+        <v>0.5656643349937738</v>
       </c>
       <c r="D25">
         <v>-2.969913237314084</v>
       </c>
       <c r="E25">
-        <v>0.9378849712632953</v>
+        <v>0.9378849712632955</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>-0.9722937101678754</v>
+        <v>-0.9722937101678769</v>
       </c>
       <c r="B26">
-        <v>-0.9111867719777323</v>
+        <v>-0.911186771977734</v>
       </c>
       <c r="C26">
-        <v>0.08696957957901161</v>
+        <v>0.08696957957901108</v>
       </c>
       <c r="D26">
         <v>0.1905100478748579</v>
       </c>
       <c r="E26">
-        <v>-0.2982228702533149</v>
+        <v>-0.298222870253315</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>1.109156871334185</v>
+        <v>1.109156871334187</v>
       </c>
       <c r="B27">
-        <v>1.046777940672194</v>
+        <v>1.046777940672196</v>
       </c>
       <c r="C27">
-        <v>-0.4169213298002281</v>
+        <v>-0.4169213298002268</v>
       </c>
       <c r="D27">
         <v>2.088280686151555</v>
       </c>
       <c r="E27">
-        <v>-0.8104220411900461</v>
+        <v>-0.8104220411900462</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>-1.200253384942318</v>
+        <v>-1.200253384942316</v>
       </c>
       <c r="B28">
-        <v>1.820473881155295</v>
+        <v>1.820473881155291</v>
       </c>
       <c r="C28">
-        <v>-1.547695327411516</v>
+        <v>-1.547695327411521</v>
       </c>
       <c r="D28">
         <v>-3.169165623532947</v>
       </c>
       <c r="E28">
-        <v>0.9693624261715159</v>
+        <v>0.9693624261715158</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>-0.7316958207638663</v>
+        <v>-0.7316958207638669</v>
       </c>
       <c r="B29">
-        <v>0.00475823710460045</v>
+        <v>0.004758237104603828</v>
       </c>
       <c r="C29">
-        <v>-0.4054890963485528</v>
+        <v>-0.4054890963485502</v>
       </c>
       <c r="D29">
-        <v>-0.7211157238336499</v>
+        <v>-0.7211157238336496</v>
       </c>
       <c r="E29">
-        <v>0.06596214805499412</v>
+        <v>0.06596214805499373</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -890,30 +890,30 @@
         <v>-1.170977813727556</v>
       </c>
       <c r="B30">
-        <v>-0.3811939761362471</v>
+        <v>-0.3811939761362528</v>
       </c>
       <c r="C30">
-        <v>-1.821093906447148</v>
+        <v>-1.82109390644715</v>
       </c>
       <c r="D30">
-        <v>-1.092174157533592</v>
+        <v>-1.092174157533591</v>
       </c>
       <c r="E30">
-        <v>0.8405449072076533</v>
+        <v>0.8405449072076531</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>0.5521647290391417</v>
+        <v>0.5521647290391412</v>
       </c>
       <c r="B31">
-        <v>-0.119862189688901</v>
+        <v>-0.1198621896888992</v>
       </c>
       <c r="C31">
-        <v>1.486269110753747</v>
+        <v>1.486269110753746</v>
       </c>
       <c r="D31">
-        <v>0.02120371412227993</v>
+        <v>0.02120371412227975</v>
       </c>
       <c r="E31">
         <v>-1.087090507194594</v>
@@ -921,19 +921,19 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>-0.8324867972311543</v>
+        <v>-0.8324867972311544</v>
       </c>
       <c r="B32">
-        <v>-0.5006144199979137</v>
+        <v>-0.5006144199979157</v>
       </c>
       <c r="C32">
-        <v>-1.355108690070365</v>
+        <v>-1.355108690070364</v>
       </c>
       <c r="D32">
-        <v>-2.608769297584222</v>
+        <v>-2.608769297584221</v>
       </c>
       <c r="E32">
-        <v>0.5687881970790459</v>
+        <v>0.568788197079046</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -941,146 +941,146 @@
         <v>1.230173676348244</v>
       </c>
       <c r="B33">
-        <v>-0.3054610504261542</v>
+        <v>-0.3054610504261576</v>
       </c>
       <c r="C33">
-        <v>0.4307116948405113</v>
+        <v>0.4307116948405084</v>
       </c>
       <c r="D33">
-        <v>-1.034984336885569</v>
+        <v>-1.034984336885568</v>
       </c>
       <c r="E33">
-        <v>0.3357148016386416</v>
+        <v>0.3357148016386415</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>-0.4483631648589286</v>
+        <v>-0.4483631648589294</v>
       </c>
       <c r="B34">
-        <v>-0.9928838378892074</v>
+        <v>-0.9928838378892161</v>
       </c>
       <c r="C34">
-        <v>-0.4025056216032119</v>
+        <v>-0.4025056216032178</v>
       </c>
       <c r="D34">
-        <v>0.5144957254529018</v>
+        <v>0.5144957254529016</v>
       </c>
       <c r="E34">
-        <v>-0.5773486457496423</v>
+        <v>-0.5773486457496418</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>0.9059357700202828</v>
+        <v>0.9059357700202836</v>
       </c>
       <c r="B35">
-        <v>0.2269979948590099</v>
+        <v>0.2269979948590126</v>
       </c>
       <c r="C35">
-        <v>0.2574337994426434</v>
+        <v>0.257433799442646</v>
       </c>
       <c r="D35">
         <v>-1.099149781682116</v>
       </c>
       <c r="E35">
-        <v>0.8815558265086719</v>
+        <v>0.8815558265086725</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>-1.380597851622058</v>
+        <v>-1.380597851622062</v>
       </c>
       <c r="B36">
-        <v>-1.744382325587693</v>
+        <v>-1.744382325587691</v>
       </c>
       <c r="C36">
-        <v>1.346638438723036</v>
+        <v>1.346638438723039</v>
       </c>
       <c r="D36">
         <v>-0.3025793928997187</v>
       </c>
       <c r="E36">
-        <v>-0.4118518686425368</v>
+        <v>-0.4118518686425363</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>1.034875543138706</v>
+        <v>1.034875543138708</v>
       </c>
       <c r="B37">
-        <v>0.3623866311226228</v>
+        <v>0.3623866311226151</v>
       </c>
       <c r="C37">
-        <v>-0.6891875609543472</v>
+        <v>-0.6891875609543524</v>
       </c>
       <c r="D37">
-        <v>0.7409918798535033</v>
+        <v>0.7409918798535032</v>
       </c>
       <c r="E37">
-        <v>-0.2933111143773746</v>
+        <v>-0.2933111143773745</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>-2.388909893637945</v>
+        <v>-2.388909893637948</v>
       </c>
       <c r="B38">
-        <v>0.5515658268104223</v>
+        <v>0.5515658268104294</v>
       </c>
       <c r="C38">
-        <v>0.9932868273210766</v>
+        <v>0.9932868273210782</v>
       </c>
       <c r="D38">
         <v>-2.740917369184981</v>
       </c>
       <c r="E38">
-        <v>-0.3100504385501556</v>
+        <v>-0.3100504385501559</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>-1.947176751074237</v>
+        <v>-1.947176751074239</v>
       </c>
       <c r="B39">
-        <v>-0.6089400629432002</v>
+        <v>-0.6089400629431981</v>
       </c>
       <c r="C39">
-        <v>0.825040872918944</v>
+        <v>0.8250408729189439</v>
       </c>
       <c r="D39">
-        <v>0.2377853745528014</v>
+        <v>0.2377853745528015</v>
       </c>
       <c r="E39">
-        <v>-0.3975669908539166</v>
+        <v>-0.3975669908539167</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>2.156438023170918</v>
+        <v>2.156438023170919</v>
       </c>
       <c r="B40">
-        <v>0.1723832340116011</v>
+        <v>0.1723832340116052</v>
       </c>
       <c r="C40">
-        <v>1.300652965142693</v>
+        <v>1.300652965142694</v>
       </c>
       <c r="D40">
         <v>1.443450771373068</v>
       </c>
       <c r="E40">
-        <v>-0.220532692809053</v>
+        <v>-0.2205326928090525</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>-1.514725882115297</v>
+        <v>-1.514725882115298</v>
       </c>
       <c r="B41">
-        <v>-0.3562851882750003</v>
+        <v>-0.3562851882749998</v>
       </c>
       <c r="C41">
-        <v>-0.2592299763066073</v>
+        <v>-0.2592299763066075</v>
       </c>
       <c r="D41">
         <v>-1.572849390609587</v>
@@ -1091,61 +1091,61 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>-0.3690842395437883</v>
+        <v>-0.3690842395437893</v>
       </c>
       <c r="B42">
-        <v>-0.1971113711046294</v>
+        <v>-0.1971113711046249</v>
       </c>
       <c r="C42">
-        <v>0.4060965652466072</v>
+        <v>0.4060965652466109</v>
       </c>
       <c r="D42">
-        <v>0.3023899754424034</v>
+        <v>0.3023899754424035</v>
       </c>
       <c r="E42">
-        <v>0.2240898597943797</v>
+        <v>0.2240898597943798</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>0.4824870732318624</v>
+        <v>0.4824870732318633</v>
       </c>
       <c r="B43">
-        <v>0.2795902286275312</v>
+        <v>0.2795902286275226</v>
       </c>
       <c r="C43">
-        <v>-0.3157714790712723</v>
+        <v>-0.3157714790712808</v>
       </c>
       <c r="D43">
-        <v>0.3724331598820624</v>
+        <v>0.3724331598820622</v>
       </c>
       <c r="E43">
-        <v>-1.050701296410434</v>
+        <v>-1.050701296410433</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>-1.19102914756626</v>
+        <v>-1.191029147566261</v>
       </c>
       <c r="B44">
-        <v>0.199434967999624</v>
+        <v>0.1994349679996264</v>
       </c>
       <c r="C44">
-        <v>0.4741728560034574</v>
+        <v>0.474172856003457</v>
       </c>
       <c r="D44">
         <v>1.717458837988622</v>
       </c>
       <c r="E44">
-        <v>0.7355457304252094</v>
+        <v>0.7355457304252095</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>-0.5693807309268054</v>
+        <v>-0.5693807309268085</v>
       </c>
       <c r="B45">
-        <v>-1.190971415481613</v>
+        <v>-1.19097141548161</v>
       </c>
       <c r="C45">
         <v>2.231280925447147</v>
@@ -1159,33 +1159,33 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>-0.9296639000096053</v>
+        <v>-0.9296639000096042</v>
       </c>
       <c r="B46">
-        <v>0.9372567109206613</v>
+        <v>0.9372567109206578</v>
       </c>
       <c r="C46">
-        <v>-0.9492227203645153</v>
+        <v>-0.9492227203645194</v>
       </c>
       <c r="D46">
-        <v>-0.7956348186933317</v>
+        <v>-0.7956348186933319</v>
       </c>
       <c r="E46">
-        <v>-0.1502087176248924</v>
+        <v>-0.1502087176248925</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>0.3037148045372084</v>
+        <v>0.3037148045372096</v>
       </c>
       <c r="B47">
-        <v>0.5346524281739107</v>
+        <v>0.5346524281739102</v>
       </c>
       <c r="C47">
-        <v>-0.1816466689437216</v>
+        <v>-0.1816466689437212</v>
       </c>
       <c r="D47">
-        <v>0.6063440945242424</v>
+        <v>0.6063440945242425</v>
       </c>
       <c r="E47">
         <v>0.3598231911791424</v>
@@ -1193,30 +1193,30 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>2.025021974485475</v>
+        <v>2.025021974485476</v>
       </c>
       <c r="B48">
-        <v>-0.1130839768651364</v>
+        <v>-0.1130839768651359</v>
       </c>
       <c r="C48">
-        <v>-0.3461216636284087</v>
+        <v>-0.3461216636284063</v>
       </c>
       <c r="D48">
-        <v>2.828336995915993</v>
+        <v>2.828336995915992</v>
       </c>
       <c r="E48">
-        <v>0.3398832572086801</v>
+        <v>0.3398832572086806</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>2.596573923849231</v>
+        <v>2.596573923849232</v>
       </c>
       <c r="B49">
-        <v>0.008044604852917282</v>
+        <v>0.008044604852911726</v>
       </c>
       <c r="C49">
-        <v>0.3125734359092281</v>
+        <v>0.3125734359092243</v>
       </c>
       <c r="D49">
         <v>1.919210937935986</v>
@@ -1227,16 +1227,16 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>-0.9485970976899493</v>
+        <v>-0.9485970976899504</v>
       </c>
       <c r="B50">
-        <v>0.1600089811264064</v>
+        <v>0.1600089811264117</v>
       </c>
       <c r="C50">
-        <v>0.8103988719795746</v>
+        <v>0.8103988719795773</v>
       </c>
       <c r="D50">
-        <v>-1.470647371475113</v>
+        <v>-1.470647371475112</v>
       </c>
       <c r="E50">
         <v>0.4886407101430044</v>
@@ -1244,13 +1244,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>-1.005025065858452</v>
+        <v>-1.00502506585845</v>
       </c>
       <c r="B51">
-        <v>2.412533097589522</v>
+        <v>2.412533097589526</v>
       </c>
       <c r="C51">
-        <v>-0.2234121970921317</v>
+        <v>-0.2234121970921334</v>
       </c>
       <c r="D51">
         <v>-1.572849390609587</v>
@@ -1261,30 +1261,30 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>0.3452397803527752</v>
+        <v>0.3452397803527764</v>
       </c>
       <c r="B52">
-        <v>0.6321114815578996</v>
+        <v>0.6321114815578989</v>
       </c>
       <c r="C52">
-        <v>-0.468321658574302</v>
+        <v>-0.4683216585743009</v>
       </c>
       <c r="D52">
-        <v>0.3771456558390944</v>
+        <v>0.3771456558390946</v>
       </c>
       <c r="E52">
-        <v>1.211645737936863</v>
+        <v>1.211645737936862</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>-0.665255042325926</v>
+        <v>-0.6652550423259261</v>
       </c>
       <c r="B53">
-        <v>0.2388863123008368</v>
+        <v>0.2388863123008381</v>
       </c>
       <c r="C53">
-        <v>-0.5095496797764961</v>
+        <v>-0.5095496797764966</v>
       </c>
       <c r="D53">
         <v>0.8456936127164788</v>
@@ -1295,50 +1295,50 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>-0.7037030106481416</v>
+        <v>-0.7037030106481439</v>
       </c>
       <c r="B54">
-        <v>-2.229871276023646</v>
+        <v>-2.229871276023652</v>
       </c>
       <c r="C54">
-        <v>0.01696579965782583</v>
+        <v>0.01696579965782496</v>
       </c>
       <c r="D54">
         <v>1.886326015648145</v>
       </c>
       <c r="E54">
-        <v>0.3569154918481615</v>
+        <v>0.356915491848161</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>0.9247980705064908</v>
+        <v>0.9247980705064898</v>
       </c>
       <c r="B55">
-        <v>-1.814402012930917</v>
+        <v>-1.814402012930916</v>
       </c>
       <c r="C55">
-        <v>-0.01226992880355693</v>
+        <v>-0.01226992880355024</v>
       </c>
       <c r="D55">
         <v>3.652387738417137</v>
       </c>
       <c r="E55">
-        <v>0.1333755608005558</v>
+        <v>0.1333755608005556</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>0.1248190827259106</v>
+        <v>0.1248190827259097</v>
       </c>
       <c r="B56">
-        <v>-1.272803918290906</v>
+        <v>-1.272803918290905</v>
       </c>
       <c r="C56">
-        <v>-0.2949382896376669</v>
+        <v>-0.2949382896376632</v>
       </c>
       <c r="D56">
-        <v>0.4845496729866167</v>
+        <v>0.4845496729866165</v>
       </c>
       <c r="E56">
         <v>0.2429964460998577</v>
@@ -1346,13 +1346,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>-0.8305808492332339</v>
+        <v>-0.8305808492332326</v>
       </c>
       <c r="B57">
-        <v>0.6988734421962297</v>
+        <v>0.6988734421962243</v>
       </c>
       <c r="C57">
-        <v>-1.569074124400406</v>
+        <v>-1.56907412440041</v>
       </c>
       <c r="D57">
         <v>-1.525337478394635</v>
@@ -1366,16 +1366,16 @@
         <v>2.470874892833353</v>
       </c>
       <c r="B58">
-        <v>-0.4440153571498716</v>
+        <v>-0.4440153571498727</v>
       </c>
       <c r="C58">
-        <v>0.8915592433102989</v>
+        <v>0.8915592433102983</v>
       </c>
       <c r="D58">
-        <v>3.804364797958057</v>
+        <v>3.804364797958056</v>
       </c>
       <c r="E58">
-        <v>0.201242226492937</v>
+        <v>0.2012422264929368</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1383,30 +1383,30 @@
         <v>-0.166887803385974</v>
       </c>
       <c r="B59">
-        <v>0.2392375429626253</v>
+        <v>0.2392375429626274</v>
       </c>
       <c r="C59">
-        <v>0.01497341568371335</v>
+        <v>0.01497341568371526</v>
       </c>
       <c r="D59">
-        <v>1.851870037780873</v>
+        <v>1.851870037780874</v>
       </c>
       <c r="E59">
-        <v>-0.688973587593904</v>
+        <v>-0.6889735875939034</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>0.8248126869988468</v>
+        <v>0.8248126869988487</v>
       </c>
       <c r="B60">
-        <v>0.5268038118778591</v>
+        <v>0.526803811877857</v>
       </c>
       <c r="C60">
         <v>-1.386777017649553</v>
       </c>
       <c r="D60">
-        <v>-0.8703904990900223</v>
+        <v>-0.8703904990900225</v>
       </c>
       <c r="E60">
         <v>-1.137764595767375</v>
@@ -1414,13 +1414,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>1.248405363876431</v>
+        <v>1.24840536387643</v>
       </c>
       <c r="B61">
-        <v>-1.175140914609062</v>
+        <v>-1.17514091460906</v>
       </c>
       <c r="C61">
-        <v>0.1637857006745561</v>
+        <v>0.1637857006745605</v>
       </c>
       <c r="D61">
         <v>2.247909111471062</v>
@@ -1431,19 +1431,19 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>0.5102694853687146</v>
+        <v>0.5102694853687154</v>
       </c>
       <c r="B62">
-        <v>0.2737405198650543</v>
+        <v>0.2737405198650556</v>
       </c>
       <c r="C62">
-        <v>-0.3411955298842854</v>
+        <v>-0.3411955298842845</v>
       </c>
       <c r="D62">
         <v>1.622671599095726</v>
       </c>
       <c r="E62">
-        <v>0.1628489591638164</v>
+        <v>0.1628489591638165</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1451,118 +1451,118 @@
         <v>-1.356418232871583</v>
       </c>
       <c r="B63">
-        <v>0.2448715253480488</v>
+        <v>0.2448715253480479</v>
       </c>
       <c r="C63">
-        <v>-1.312901226752309</v>
+        <v>-1.312901226752308</v>
       </c>
       <c r="D63">
         <v>-1.356031144642057</v>
       </c>
       <c r="E63">
-        <v>0.2503655114675774</v>
+        <v>0.2503655114675772</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>1.350174683160768</v>
+        <v>1.350174683160772</v>
       </c>
       <c r="B64">
         <v>2.46684479593165</v>
       </c>
       <c r="C64">
-        <v>-0.4774484596514892</v>
+        <v>-0.4774484596514935</v>
       </c>
       <c r="D64">
-        <v>0.5788977557864585</v>
+        <v>0.5788977557864589</v>
       </c>
       <c r="E64">
-        <v>-0.3518046581570758</v>
+        <v>-0.3518046581570764</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>-0.8079294192963031</v>
+        <v>-0.8079294192963014</v>
       </c>
       <c r="B65">
-        <v>0.8740610870531539</v>
+        <v>0.8740610870531424</v>
       </c>
       <c r="C65">
-        <v>-1.77141166754051</v>
+        <v>-1.771411667540519</v>
       </c>
       <c r="D65">
         <v>-1.54810533615635</v>
       </c>
       <c r="E65">
-        <v>0.6369449101305095</v>
+        <v>0.6369449101305094</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>0.2735501665945247</v>
+        <v>0.2735501665945262</v>
       </c>
       <c r="B66">
-        <v>1.490842221382342</v>
+        <v>1.490842221382335</v>
       </c>
       <c r="C66">
-        <v>0.7759765339813276</v>
+        <v>0.7759765339813164</v>
       </c>
       <c r="D66">
         <v>-2.8928944287259</v>
       </c>
       <c r="E66">
-        <v>-0.3779171042425368</v>
+        <v>-0.377917104242537</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>0.04039293480577277</v>
+        <v>0.04039293480577404</v>
       </c>
       <c r="B67">
-        <v>0.4800635415033916</v>
+        <v>0.4800635415033914</v>
       </c>
       <c r="C67">
-        <v>-1.238032621472831</v>
+        <v>-1.238032621472829</v>
       </c>
       <c r="D67">
         <v>-1.08967444380509</v>
       </c>
       <c r="E67">
-        <v>-0.6914280339780651</v>
+        <v>-0.6914280339780654</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>-0.9878778603780287</v>
+        <v>-0.9878778603780277</v>
       </c>
       <c r="B68">
-        <v>2.279121811795811</v>
+        <v>2.279121811795817</v>
       </c>
       <c r="C68">
-        <v>0.004201601285111669</v>
+        <v>0.00420160128511124</v>
       </c>
       <c r="D68">
-        <v>-0.3698862780738674</v>
+        <v>-0.3698862780738673</v>
       </c>
       <c r="E68">
-        <v>0.1023513588391549</v>
+        <v>0.1023513588391547</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>-1.679655258386663</v>
+        <v>-1.679655258386665</v>
       </c>
       <c r="B69">
-        <v>-0.8854513359117496</v>
+        <v>-0.8854513359117502</v>
       </c>
       <c r="C69">
-        <v>0.6251827740381908</v>
+        <v>0.6251827740381912</v>
       </c>
       <c r="D69">
-        <v>-0.8803049930601023</v>
+        <v>-0.8803049930601025</v>
       </c>
       <c r="E69">
-        <v>-0.7322786107989651</v>
+        <v>-0.7322786107989646</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1570,50 +1570,50 @@
         <v>1.297402431715713</v>
       </c>
       <c r="B70">
-        <v>0.5113556294920344</v>
+        <v>0.5113556294920415</v>
       </c>
       <c r="C70">
-        <v>2.112307180179435</v>
+        <v>2.112307180179437</v>
       </c>
       <c r="D70">
-        <v>0.3226581194756174</v>
+        <v>0.3226581194756175</v>
       </c>
       <c r="E70">
-        <v>0.5806157653758866</v>
+        <v>0.5806157653758869</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>-0.770108795162752</v>
+        <v>-0.7701087951627517</v>
       </c>
       <c r="B71">
-        <v>1.306445486665077</v>
+        <v>1.306445486665083</v>
       </c>
       <c r="C71">
-        <v>0.376509765538021</v>
+        <v>0.3765097655380206</v>
       </c>
       <c r="D71">
-        <v>-1.612709937045953</v>
+        <v>-1.612709937045952</v>
       </c>
       <c r="E71">
-        <v>0.01528805948221321</v>
+        <v>0.01528805948221312</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>1.454827017454628</v>
+        <v>1.45482701745463</v>
       </c>
       <c r="B72">
-        <v>1.624033271535845</v>
+        <v>1.624033271535844</v>
       </c>
       <c r="C72">
-        <v>0.0948339086554631</v>
+        <v>0.09483390865545929</v>
       </c>
       <c r="D72">
         <v>1.014763360932048</v>
       </c>
       <c r="E72">
-        <v>-0.1086177036057086</v>
+        <v>-0.1086177036057085</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1621,78 +1621,78 @@
         <v>1.26708224627679</v>
       </c>
       <c r="B73">
-        <v>-1.375001567774557</v>
+        <v>-1.375001567774559</v>
       </c>
       <c r="C73">
-        <v>-0.2886789205791666</v>
+        <v>-0.288678920579164</v>
       </c>
       <c r="D73">
         <v>1.413504718906783</v>
       </c>
       <c r="E73">
-        <v>0.5998123990404469</v>
+        <v>0.5998123990404471</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>-0.9445670850995241</v>
+        <v>-0.944567085099526</v>
       </c>
       <c r="B74">
-        <v>-1.455103634233908</v>
+        <v>-1.455103634233903</v>
       </c>
       <c r="C74">
-        <v>-0.5369070516292708</v>
+        <v>-0.5369070516292634</v>
       </c>
       <c r="D74">
-        <v>0.7682356480352417</v>
+        <v>0.7682356480352418</v>
       </c>
       <c r="E74">
-        <v>0.02220387190311361</v>
+        <v>0.02220387190311338</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>-3.098272963534538</v>
+        <v>-3.098272963534539</v>
       </c>
       <c r="B75">
-        <v>-0.08152920164913932</v>
+        <v>-0.08152920164914168</v>
       </c>
       <c r="C75">
-        <v>-1.092542411309232</v>
+        <v>-1.092542411309235</v>
       </c>
       <c r="D75">
-        <v>-2.835704608077878</v>
+        <v>-2.835704608077877</v>
       </c>
       <c r="E75">
-        <v>-0.8827472098115487</v>
+        <v>-0.8827472098115491</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>-0.4536556157115235</v>
+        <v>-0.4536556157115219</v>
       </c>
       <c r="B76">
-        <v>1.101229877243201</v>
+        <v>1.101229877243197</v>
       </c>
       <c r="C76">
-        <v>-1.692797549815778</v>
+        <v>-1.69279754981578</v>
       </c>
       <c r="D76">
         <v>0.1905100478748579</v>
       </c>
       <c r="E76">
-        <v>-0.2982228702533149</v>
+        <v>-0.298222870253315</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>-1.747419218122237</v>
+        <v>-1.747419218122238</v>
       </c>
       <c r="B77">
-        <v>0.9034706615107986</v>
+        <v>0.9034706615107919</v>
       </c>
       <c r="C77">
-        <v>0.3203965572086503</v>
+        <v>0.3203965572086392</v>
       </c>
       <c r="D77">
         <v>-1.981268657017393</v>
@@ -1703,81 +1703,81 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>-0.004825761870600022</v>
+        <v>-0.004825761870600754</v>
       </c>
       <c r="B78">
-        <v>-0.3999646307937303</v>
+        <v>-0.3999646307937284</v>
       </c>
       <c r="C78">
-        <v>0.3553077174807904</v>
+        <v>0.3553077174807919</v>
       </c>
       <c r="D78">
-        <v>-0.2377382064731077</v>
+        <v>-0.2377382064731078</v>
       </c>
       <c r="E78">
-        <v>0.9811899944683563</v>
+        <v>0.9811899944683564</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>0.9780544131036192</v>
+        <v>0.9780544131036212</v>
       </c>
       <c r="B79">
-        <v>0.3959706927983019</v>
+        <v>0.3959706927982911</v>
       </c>
       <c r="C79">
-        <v>-0.9952766465621543</v>
+        <v>-0.9952766465621615</v>
       </c>
       <c r="D79">
         <v>2.561541138985972</v>
       </c>
       <c r="E79">
-        <v>0.1141789271359957</v>
+        <v>0.1141789271359956</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>-0.5020714031458525</v>
+        <v>-0.5020714031458531</v>
       </c>
       <c r="B80">
-        <v>-0.2239423527035503</v>
+        <v>-0.223942352703554</v>
       </c>
       <c r="C80">
-        <v>0.2339969029091417</v>
+        <v>0.2339969029091371</v>
       </c>
       <c r="D80">
-        <v>-0.4520567387121366</v>
+        <v>-0.4520567387121368</v>
       </c>
       <c r="E80">
-        <v>-2.011691475520637</v>
+        <v>-2.011691475520636</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>2.981417012583664</v>
+        <v>2.981417012583666</v>
       </c>
       <c r="B81">
-        <v>-0.5227592046765109</v>
+        <v>-0.5227592046765142</v>
       </c>
       <c r="C81">
-        <v>0.489890008287981</v>
+        <v>0.4898900082879807</v>
       </c>
       <c r="D81">
-        <v>3.226639197797673</v>
+        <v>3.226639197797672</v>
       </c>
       <c r="E81">
-        <v>-0.1191845156634911</v>
+        <v>-0.1191845156634914</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>-2.418634413787794</v>
+        <v>-2.418634413787796</v>
       </c>
       <c r="B82">
-        <v>-0.003773524179169702</v>
+        <v>-0.00377352417916777</v>
       </c>
       <c r="C82">
-        <v>1.39595480942534</v>
+        <v>1.395954809425338</v>
       </c>
       <c r="D82">
         <v>-1.981268657017393</v>
@@ -1788,13 +1788,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>1.168552503003254</v>
+        <v>1.168552503003253</v>
       </c>
       <c r="B83">
-        <v>-0.9249149637274109</v>
+        <v>-0.9249149637274054</v>
       </c>
       <c r="C83">
-        <v>0.403681566164418</v>
+        <v>0.4036815661644241</v>
       </c>
       <c r="D83">
         <v>1.430833993118442</v>
@@ -1805,47 +1805,47 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>-0.3202585627331849</v>
+        <v>-0.3202585627331845</v>
       </c>
       <c r="B84">
         <v>1.532950476144197</v>
       </c>
       <c r="C84">
-        <v>1.369020696824168</v>
+        <v>1.369020696824161</v>
       </c>
       <c r="D84">
         <v>-0.3126964574258439</v>
       </c>
       <c r="E84">
-        <v>-0.4024787467298571</v>
+        <v>-0.4024787467298574</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>0.07352269453223871</v>
+        <v>0.07352269453223818</v>
       </c>
       <c r="B85">
-        <v>-0.4180438494633072</v>
+        <v>-0.418043849463305</v>
       </c>
       <c r="C85">
-        <v>0.1780200984578238</v>
+        <v>0.1780200984578265</v>
       </c>
       <c r="D85">
-        <v>0.2751462072606651</v>
+        <v>0.2751462072606652</v>
       </c>
       <c r="E85">
-        <v>-0.09142512648610825</v>
+        <v>-0.09142512648610795</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>-2.642484667839013</v>
+        <v>-2.642484667839015</v>
       </c>
       <c r="B86">
-        <v>0.9300013426712663</v>
+        <v>0.9300013426712674</v>
       </c>
       <c r="C86">
-        <v>1.429118219884096</v>
+        <v>1.429118219884091</v>
       </c>
       <c r="D86">
         <v>-1.876803509691426</v>
@@ -1859,47 +1859,47 @@
         <v>1.07976461309078</v>
       </c>
       <c r="B87">
-        <v>-0.2484763809620203</v>
+        <v>-0.2484763809620202</v>
       </c>
       <c r="C87">
-        <v>0.7548664712767202</v>
+        <v>0.7548664712767197</v>
       </c>
       <c r="D87">
         <v>2.591487191452257</v>
       </c>
       <c r="E87">
-        <v>-0.7061661647135041</v>
+        <v>-0.706166164713504</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>-2.370263525856489</v>
+        <v>-2.37026352585649</v>
       </c>
       <c r="B88">
-        <v>-0.02066461500848104</v>
+        <v>-0.0206646150084831</v>
       </c>
       <c r="C88">
-        <v>-0.6751005474919858</v>
+        <v>-0.6751005474919881</v>
       </c>
       <c r="D88">
-        <v>-0.9503141625187979</v>
+        <v>-0.9503141625187975</v>
       </c>
       <c r="E88">
-        <v>0.9177846948127145</v>
+        <v>0.9177846948127136</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>0.6685502107775289</v>
+        <v>0.6685502107775279</v>
       </c>
       <c r="B89">
-        <v>-0.1773378206084517</v>
+        <v>-0.1773378206084506</v>
       </c>
       <c r="C89">
-        <v>2.256755226661016</v>
+        <v>2.256755226661013</v>
       </c>
       <c r="D89">
-        <v>0.2404876588373482</v>
+        <v>0.240487658837348</v>
       </c>
       <c r="E89">
         <v>-1.533427068983904</v>
@@ -1907,47 +1907,47 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>0.215738318070519</v>
+        <v>0.2157383180705202</v>
       </c>
       <c r="B90">
-        <v>1.072324970352791</v>
+        <v>1.072324970352796</v>
       </c>
       <c r="C90">
-        <v>-0.1705741764857586</v>
+        <v>-0.1705741764857542</v>
       </c>
       <c r="D90">
-        <v>0.3125410549494923</v>
+        <v>0.3125410549494924</v>
       </c>
       <c r="E90">
-        <v>0.5899888872885665</v>
+        <v>0.5899888872885659</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>-2.043093225711555</v>
+        <v>-2.043093225711557</v>
       </c>
       <c r="B91">
-        <v>-0.2977825252225484</v>
+        <v>-0.2977825252225466</v>
       </c>
       <c r="C91">
-        <v>-0.1044845903758032</v>
+        <v>-0.104484590375803</v>
       </c>
       <c r="D91">
         <v>-2.90280892269598</v>
       </c>
       <c r="E91">
-        <v>0.02756888072587307</v>
+        <v>0.027568880725873</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>0.6615242039574675</v>
+        <v>0.6615242039574661</v>
       </c>
       <c r="B92">
-        <v>-1.760344979742634</v>
+        <v>-1.760344979742641</v>
       </c>
       <c r="C92">
-        <v>0.2832878683019564</v>
+        <v>0.2832878683019531</v>
       </c>
       <c r="D92">
         <v>1.383558666440498</v>
@@ -1958,13 +1958,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>-2.453349637502697</v>
+        <v>-2.453349637502698</v>
       </c>
       <c r="B93">
-        <v>0.4227160806656157</v>
+        <v>0.4227160806656158</v>
       </c>
       <c r="C93">
-        <v>0.0615279287303827</v>
+        <v>0.06152792873038068</v>
       </c>
       <c r="D93">
         <v>-1.62012471728753</v>
@@ -1975,47 +1975,47 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>0.3569476553477039</v>
+        <v>0.3569476553477053</v>
       </c>
       <c r="B94">
-        <v>1.251750010193864</v>
+        <v>1.251750010193865</v>
       </c>
       <c r="C94">
-        <v>0.3473522621900861</v>
+        <v>0.3473522621900846</v>
       </c>
       <c r="D94">
-        <v>0.2377853745528014</v>
+        <v>0.2377853745528015</v>
       </c>
       <c r="E94">
-        <v>-0.3975669908539166</v>
+        <v>-0.3975669908539167</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>0.6427033414679442</v>
+        <v>0.6427033414679447</v>
       </c>
       <c r="B95">
-        <v>0.0888681661412606</v>
+        <v>0.08886816614126486</v>
       </c>
       <c r="C95">
-        <v>-0.2416049502545137</v>
+        <v>-0.2416049502545085</v>
       </c>
       <c r="D95">
-        <v>-0.01865683231408497</v>
+        <v>-0.01865683231408494</v>
       </c>
       <c r="E95">
-        <v>0.1387405696233156</v>
+        <v>0.1387405696233155</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>-0.6090655430469466</v>
+        <v>-0.6090655430469484</v>
       </c>
       <c r="B96">
-        <v>-0.48680247231728</v>
+        <v>-0.4868024723172788</v>
       </c>
       <c r="C96">
-        <v>1.698613962013721</v>
+        <v>1.698613962013722</v>
       </c>
       <c r="D96">
         <v>-1.041723375497084</v>
@@ -2026,36 +2026,36 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>-1.38517088192475</v>
+        <v>-1.385170881924753</v>
       </c>
       <c r="B97">
-        <v>0.07175748118365628</v>
+        <v>0.07175748118366837</v>
       </c>
       <c r="C97">
-        <v>1.745770990986943</v>
+        <v>1.745770990986949</v>
       </c>
       <c r="D97">
         <v>-1.55528353086092</v>
       </c>
       <c r="E97">
-        <v>0.2818429663757979</v>
+        <v>0.2818429663757975</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>-1.628900041971915</v>
+        <v>-1.628900041971917</v>
       </c>
       <c r="B98">
-        <v>-0.65203220317956</v>
+        <v>-0.6520322031795532</v>
       </c>
       <c r="C98">
-        <v>0.7123493228548968</v>
+        <v>0.7123493228549033</v>
       </c>
       <c r="D98">
-        <v>-0.494416998877003</v>
+        <v>-0.4944169988770027</v>
       </c>
       <c r="E98">
-        <v>0.746112542482992</v>
+        <v>0.7461125424829922</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2063,44 +2063,44 @@
         <v>1.505601503095851</v>
       </c>
       <c r="B99">
-        <v>0.2661507766044527</v>
+        <v>0.2661507766044566</v>
       </c>
       <c r="C99">
-        <v>1.212556929275785</v>
+        <v>1.212556929275787</v>
       </c>
       <c r="D99">
         <v>2.145707092336587</v>
       </c>
       <c r="E99">
-        <v>-0.5438671342964617</v>
+        <v>-0.5438671342964619</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>2.289629744807641</v>
+        <v>2.289629744807642</v>
       </c>
       <c r="B100">
-        <v>-1.019511318552251</v>
+        <v>-1.01951131855225</v>
       </c>
       <c r="C100">
-        <v>-1.242617317263968</v>
+        <v>-1.242617317263961</v>
       </c>
       <c r="D100">
         <v>1.575396272417783</v>
       </c>
       <c r="E100">
-        <v>0.2621930797644183</v>
+        <v>0.2621930797644182</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>-0.1619098333197385</v>
+        <v>-0.1619098333197393</v>
       </c>
       <c r="B101">
-        <v>-0.8257472557381406</v>
+        <v>-0.8257472557381407</v>
       </c>
       <c r="C101">
-        <v>-0.2104217059770643</v>
+        <v>-0.2104217059770623</v>
       </c>
       <c r="D101">
         <v>0.2776459209891664</v>
@@ -2111,19 +2111,19 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>-0.5011892299725369</v>
+        <v>-0.5011892299725376</v>
       </c>
       <c r="B102">
-        <v>-0.07167440168982399</v>
+        <v>-0.07167440168982668</v>
       </c>
       <c r="C102">
-        <v>0.7505311861232451</v>
+        <v>0.7505311861232417</v>
       </c>
       <c r="D102">
         <v>-1.79193076476861</v>
       </c>
       <c r="E102">
-        <v>-0.368093592490656</v>
+        <v>-0.3680935924906558</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2131,16 +2131,16 @@
         <v>-1.68416711296895</v>
       </c>
       <c r="B103">
-        <v>0.1445887353991117</v>
+        <v>0.144588735399103</v>
       </c>
       <c r="C103">
-        <v>-1.338556093412114</v>
+        <v>-1.33855609341212</v>
       </c>
       <c r="D103">
         <v>-0.643894344689421</v>
       </c>
       <c r="E103">
-        <v>-0.8537270643951077</v>
+        <v>-0.8537270643951075</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2148,10 +2148,10 @@
         <v>1.619627203558878</v>
       </c>
       <c r="B104">
-        <v>-1.18682476500414</v>
+        <v>-1.186824765004138</v>
       </c>
       <c r="C104">
-        <v>0.2240595614111771</v>
+        <v>0.2240595614111835</v>
       </c>
       <c r="D104">
         <v>0.8456936127164788</v>
@@ -2162,13 +2162,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>-2.269398383425709</v>
+        <v>-2.269398383425711</v>
       </c>
       <c r="B105">
-        <v>0.09526244735863638</v>
+        <v>0.09526244735863597</v>
       </c>
       <c r="C105">
-        <v>1.456260360564545</v>
+        <v>1.456260360564538</v>
       </c>
       <c r="D105">
         <v>-1.4782987372537</v>
@@ -2179,13 +2179,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>1.634980503675628</v>
+        <v>1.63498050367563</v>
       </c>
       <c r="B106">
-        <v>-0.4462008518954707</v>
+        <v>-0.4462008518954818</v>
       </c>
       <c r="C106">
-        <v>-0.7362873898061586</v>
+        <v>-0.7362873898061628</v>
       </c>
       <c r="D106">
         <v>1.52788436020283</v>
@@ -2196,152 +2196,152 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>0.1039672688192038</v>
+        <v>0.1039672688192025</v>
       </c>
       <c r="B107">
-        <v>-1.117965584127965</v>
+        <v>-1.117965584127963</v>
       </c>
       <c r="C107">
-        <v>0.3299215851052679</v>
+        <v>0.329921585105272</v>
       </c>
       <c r="D107">
         <v>1.281593232843032</v>
       </c>
       <c r="E107">
-        <v>0.4923587758738422</v>
+        <v>0.4923587758738417</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <v>-2.622871671130181</v>
+        <v>-2.622871671130182</v>
       </c>
       <c r="B108">
-        <v>0.5333237838644433</v>
+        <v>0.5333237838644468</v>
       </c>
       <c r="C108">
-        <v>0.5833421539826108</v>
+        <v>0.5833421539826086</v>
       </c>
       <c r="D108">
         <v>-2.436963250103142</v>
       </c>
       <c r="E108">
-        <v>-0.1743171071653929</v>
+        <v>-0.1743171071653932</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
-        <v>-0.9180850877151874</v>
+        <v>-0.9180850877151864</v>
       </c>
       <c r="B109">
-        <v>0.7444848013638361</v>
+        <v>0.7444848013638391</v>
       </c>
       <c r="C109">
-        <v>-1.466474956465947</v>
+        <v>-1.466474956465945</v>
       </c>
       <c r="D109">
-        <v>-1.092174157533592</v>
+        <v>-1.092174157533591</v>
       </c>
       <c r="E109">
-        <v>0.8405449072076533</v>
+        <v>0.8405449072076531</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110">
-        <v>-1.969512048839505</v>
+        <v>-1.969512048839507</v>
       </c>
       <c r="B110">
-        <v>-0.9267189349755015</v>
+        <v>-0.9267189349754965</v>
       </c>
       <c r="C110">
-        <v>-0.4910863678945405</v>
+        <v>-0.491086367894534</v>
       </c>
       <c r="D110">
         <v>-2.808021683803085</v>
       </c>
       <c r="E110">
-        <v>0.6002656519872663</v>
+        <v>0.6002656519872662</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111">
-        <v>0.08815336933701404</v>
+        <v>0.08815336933701441</v>
       </c>
       <c r="B111">
-        <v>-0.6201979128169713</v>
+        <v>-0.6201979128169651</v>
       </c>
       <c r="C111">
-        <v>-1.828486034642128</v>
+        <v>-1.828486034642118</v>
       </c>
       <c r="D111">
         <v>-1.25156599731609</v>
       </c>
       <c r="E111">
-        <v>-0.3538087147020362</v>
+        <v>-0.3538087147020363</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112">
-        <v>3.450764039986978</v>
+        <v>3.450764039986982</v>
       </c>
       <c r="B112">
-        <v>1.105427376653329</v>
+        <v>1.10542737665333</v>
       </c>
       <c r="C112">
-        <v>-1.080375858699512</v>
+        <v>-1.080375858699511</v>
       </c>
       <c r="D112">
         <v>3.425891584016536</v>
       </c>
       <c r="E112">
-        <v>-0.1506619705717116</v>
+        <v>-0.1506619705717117</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113">
-        <v>0.8344930426248587</v>
+        <v>0.8344930426248593</v>
       </c>
       <c r="B113">
-        <v>-0.9889725408198402</v>
+        <v>-0.9889725408198394</v>
       </c>
       <c r="C113">
-        <v>-1.560966761684357</v>
+        <v>-1.560966761684351</v>
       </c>
       <c r="D113">
         <v>1.831838479284668</v>
       </c>
       <c r="E113">
-        <v>-0.2741144807128142</v>
+        <v>-0.274114480712814</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114">
-        <v>0.7200851689434062</v>
+        <v>0.7200851689434081</v>
       </c>
       <c r="B114">
-        <v>-0.1047639355403967</v>
+        <v>-0.1047639355404034</v>
       </c>
       <c r="C114">
-        <v>-1.241503878189057</v>
+        <v>-1.241503878189058</v>
       </c>
       <c r="D114">
-        <v>-0.2478552709992328</v>
+        <v>-0.2478552709992327</v>
       </c>
       <c r="E114">
-        <v>0.9905631163810362</v>
+        <v>0.9905631163810357</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115">
-        <v>-0.6071530593213715</v>
+        <v>-0.607153059321373</v>
       </c>
       <c r="B115">
-        <v>-0.9617720806531074</v>
+        <v>-0.9617720806531105</v>
       </c>
       <c r="C115">
-        <v>0.552715015027298</v>
+        <v>0.5527150150272964</v>
       </c>
       <c r="D115">
-        <v>0.06847904080022349</v>
+        <v>0.06847904080022343</v>
       </c>
       <c r="E115">
         <v>-1.186434627795196</v>
@@ -2349,13 +2349,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116">
-        <v>-0.3286388256213282</v>
+        <v>-0.3286388256213303</v>
       </c>
       <c r="B116">
-        <v>-1.684939382394756</v>
+        <v>-1.684939382394751</v>
       </c>
       <c r="C116">
-        <v>0.2514687127649025</v>
+        <v>0.2514687127649106</v>
       </c>
       <c r="D116">
         <v>-1.57511251880108</v>
@@ -2366,50 +2366,50 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117">
-        <v>1.599713119533641</v>
+        <v>1.599713119533642</v>
       </c>
       <c r="B117">
-        <v>-0.5817051639491843</v>
+        <v>-0.5817051639491811</v>
       </c>
       <c r="C117">
-        <v>-0.1138328657557095</v>
+        <v>-0.1138328657557048</v>
       </c>
       <c r="D117">
-        <v>-0.3124938868697988</v>
+        <v>-0.3124938868697987</v>
       </c>
       <c r="E117">
-        <v>-0.006365883674126658</v>
+        <v>-0.00636588367412601</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118">
-        <v>-1.877624293234262</v>
+        <v>-1.877624293234264</v>
       </c>
       <c r="B118">
-        <v>-1.503893751678929</v>
+        <v>-1.50389375167893</v>
       </c>
       <c r="C118">
-        <v>-0.9795814203707397</v>
+        <v>-0.9795814203707378</v>
       </c>
       <c r="D118">
         <v>-1.224119658578306</v>
       </c>
       <c r="E118">
-        <v>0.3578191346341822</v>
+        <v>0.3578191346341826</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119">
-        <v>0.781952917078655</v>
+        <v>0.7819529170786581</v>
       </c>
       <c r="B119">
-        <v>1.945503946427189</v>
+        <v>1.945503946427191</v>
       </c>
       <c r="C119">
-        <v>-0.9464319093530938</v>
+        <v>-0.9464319093530947</v>
       </c>
       <c r="D119">
-        <v>-2.628598285524382</v>
+        <v>-2.628598285524381</v>
       </c>
       <c r="E119">
         <v>1.379760167015867</v>
@@ -2417,16 +2417,16 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120">
-        <v>0.5829868679624406</v>
+        <v>0.5829868679624401</v>
       </c>
       <c r="B120">
-        <v>-1.43497658913072</v>
+        <v>-1.434976589130724</v>
       </c>
       <c r="C120">
-        <v>-0.6610428566776766</v>
+        <v>-0.6610428566776771</v>
       </c>
       <c r="D120">
-        <v>-0.9672042806374022</v>
+        <v>-0.9672042806374024</v>
       </c>
       <c r="E120">
         <v>1.364281599082143</v>
@@ -2434,16 +2434,16 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121">
-        <v>1.995182740706932</v>
+        <v>1.995182740706933</v>
       </c>
       <c r="B121">
-        <v>-0.7505797506477877</v>
+        <v>-0.7505797506477925</v>
       </c>
       <c r="C121">
-        <v>0.1166692888079731</v>
+        <v>0.1166692888079708</v>
       </c>
       <c r="D121">
-        <v>1.710044057747043</v>
+        <v>1.710044057747042</v>
       </c>
       <c r="E121">
         <v>-0.3909412257920987</v>
@@ -2451,19 +2451,19 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122">
-        <v>-0.8008065452380085</v>
+        <v>-0.8008065452380093</v>
       </c>
       <c r="B122">
-        <v>0.03528095417564776</v>
+        <v>0.03528095417565077</v>
       </c>
       <c r="C122">
-        <v>0.2747371188582869</v>
+        <v>0.2747371188582879</v>
       </c>
       <c r="D122">
-        <v>0.9127639123536192</v>
+        <v>0.9127639123536191</v>
       </c>
       <c r="E122">
-        <v>-1.41168856802868</v>
+        <v>-1.411688568028679</v>
       </c>
     </row>
   </sheetData>
